--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2144 +418,2350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.2070025994352402</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6.005399760970445</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.001400190647265429</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.001496322242464008</v>
+      </c>
+      <c r="E2">
         <v>0.5412217458762797</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.4043153951944206</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3.038266050709882</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.08502405888103508</v>
+      </c>
+      <c r="I2">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="J2">
         <v>0.5121317461935677</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>2.579284024443731</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>0.6176992221641954</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>3.76228376210224</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N2" t="n">
-        <v>17.76684423917034</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>20.24827422687785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.237860129785835</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6.900614632171004</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.001666893627696939</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.001781336002933344</v>
+      </c>
+      <c r="E3">
         <v>0.6443116022336666</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.2695435967962804</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2.025510700473255</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.04858517650344864</v>
+      </c>
+      <c r="I3">
+        <v>1.369319884132161</v>
+      </c>
+      <c r="J3">
         <v>0.642492554315567</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>3.235829048847591</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>0.9574337943545029</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>5.831539831258472</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>20.74680278386387</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>22.16482228687472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.1938238625146737</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.623068409728535</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.001200163411941796</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.001282561922112007</v>
+      </c>
+      <c r="E4">
         <v>0.4639043536082399</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.2133886807970554</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.603529304541327</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.08198748534956958</v>
+      </c>
+      <c r="I4">
+        <v>2.310727304473023</v>
+      </c>
+      <c r="J4">
         <v>0.5028202598991393</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>2.532387951272027</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>0.6331417027183001</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>3.856340856154794</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N4" t="n">
-        <v>15.7214452860791</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>18.11424247441186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.2217884993949002</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6.434356886754047</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.001600217882589062</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.001710082562816011</v>
+      </c>
+      <c r="E5">
         <v>0.6185391381443198</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.3256985127955056</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>2.447492096405183</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.05465832356637971</v>
+      </c>
+      <c r="I5">
+        <v>1.540484869648681</v>
+      </c>
+      <c r="J5">
         <v>0.4888530304574965</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>2.462043841514472</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>0.4478319360690418</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>2.727655727524123</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.01164474161060098</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.1840347412555406</v>
       </c>
-      <c r="N5" t="n">
-        <v>16.37153936980782</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>17.96679242770311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.2108597907290646</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.117301619870513</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.00220029958855996</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.002351363523872013</v>
+      </c>
+      <c r="E6">
         <v>0.8504913149484395</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.2695435967962804</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>2.025510700473255</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.05162175003491416</v>
+      </c>
+      <c r="I6">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="J6">
         <v>0.4841972873102823</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>2.438595804928619</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>0.6022567416100902</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>3.668226668049683</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N6" t="n">
-        <v>16.71810369502132</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>18.22477888588197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.2066811668274215</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.996074606062101</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.001266839157049674</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.001353815362229341</v>
+      </c>
+      <c r="E7">
         <v>0.4896768176975864</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.2133886807970554</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1.603529304541327</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.06984119122370741</v>
+      </c>
+      <c r="I7">
+        <v>1.968397333439982</v>
+      </c>
+      <c r="J7">
         <v>0.5447219482240676</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>2.743420280544697</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>0.5559292999477756</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>3.386055385892015</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.0262006686238522</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.4140781678249662</v>
       </c>
-      <c r="N7" t="n">
-        <v>16.18102316613992</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>18.21934866700878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.1992882168475914</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>5.7815960431703</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.00193359660812845</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.002066349763402679</v>
+      </c>
+      <c r="E8">
         <v>0.7474014585910528</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.2246196639969003</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.687925583727713</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.06073147062931077</v>
+      </c>
+      <c r="I8">
+        <v>1.711649855165201</v>
+      </c>
+      <c r="J8">
         <v>0.516787489340782</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>2.602732061029585</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>0.4632744166231463</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>2.821712821576679</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N8" t="n">
-        <v>15.19403096366148</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>16.96654504261127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.2233956624339938</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.48098266129574</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.001066811921726041</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.00114005504187734</v>
+      </c>
+      <c r="E9">
         <v>0.4123594254295465</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.4492393279938005</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>3.375851167455425</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.07287776475517294</v>
+      </c>
+      <c r="I9">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="J9">
         <v>0.5074760030463535</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>2.55583598785788</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>0.3397345721903075</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>2.069256069156231</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N9" t="n">
-        <v>16.56195730093061</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>18.68888813500418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.2719319862146168</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7.889081052454955</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.001600217882589062</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.001710082562816011</v>
+      </c>
+      <c r="E10">
         <v>0.6185391381443198</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.2807745799961254</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2.109906979659641</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.06680461769224183</v>
+      </c>
+      <c r="I10">
+        <v>1.882814840681722</v>
+      </c>
+      <c r="J10">
         <v>0.442295598985354</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>2.227563475655951</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>0.2470796888656781</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>1.504913504840895</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N10" t="n">
-        <v>15.64260609341666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>17.59233541647085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.2655033340582427</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>7.702577954288175</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.000466730215755143</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.0004987740808213363</v>
+      </c>
+      <c r="E11">
         <v>0.1804072486254266</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.3032365463958154</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2.278699538032412</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.07895091181810404</v>
+      </c>
+      <c r="I11">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="J11">
         <v>0.2327871573607126</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>1.172401829292606</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.1544248055410488</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>0.9405709405255599</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N11" t="n">
-        <v>13.32891582576882</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>15.63304359316676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.2340029384920106</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>6.788712773270935</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.0008001089412945309</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.0008550412814080053</v>
+      </c>
+      <c r="E12">
         <v>0.3092695690721599</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.2133886807970554</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1.603529304541327</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.1062800736012939</v>
+      </c>
+      <c r="I12">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="J12">
         <v>0.1676067532997131</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.844129317090676</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.262522169419783</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>1.598970598893452</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N12" t="n">
-        <v>12.12077195525148</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>15.22249420773199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1838594516722941</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5.333988607570021</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0004000544706472655</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.0004275206407040026</v>
+      </c>
+      <c r="E13">
         <v>0.15463478453608</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.1684647479976752</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1.265944187795784</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.08502405888103508</v>
+      </c>
+      <c r="I13">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="J13">
         <v>0.1489837807108561</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.7503371707472674</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.1389823249869439</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.8465138464730039</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N13" t="n">
-        <v>9.041028827677108</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>11.52239014995948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.1443232409105945</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.186994553844299</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.0006000817059708981</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.0006412809610560037</v>
+      </c>
+      <c r="E14">
         <v>0.2319521768041199</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.1572337647978302</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.181547908609399</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.09717035300689729</v>
+      </c>
+      <c r="I14">
+        <v>2.738639768264322</v>
+      </c>
+      <c r="J14">
         <v>0.09777060609149933</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.4924087683028943</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.09265488332462926</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>0.5643425643153358</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>7.149828548706571</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>9.985679869232877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.09482261930651532</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.750920697960063</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.0002667029804315103</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.000285013760469335</v>
+      </c>
+      <c r="E15">
         <v>0.1030898563573866</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.06738589919907009</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.5063776751183137</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.05465832356637971</v>
+      </c>
+      <c r="I15">
+        <v>1.540484869648681</v>
+      </c>
+      <c r="J15">
         <v>0.06983614720821379</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.3517205487877815</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.1080973638787342</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.6583996583678919</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N15" t="n">
-        <v>4.759837039880937</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>6.354998543876036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.04917918899626048</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.426748700975897</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.0007334331961866533</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.0007837878412906713</v>
+      </c>
+      <c r="E16">
         <v>0.2834971049828132</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.08984786559876011</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.6751702334910848</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.02429258825172432</v>
+      </c>
+      <c r="I16">
+        <v>0.6846599420660806</v>
+      </c>
+      <c r="J16">
         <v>0.08380337664985653</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.422064658545338</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.07721240277052442</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.4702854702627799</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>3.578542435469501</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>4.28754532043241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.03375042382096308</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.9791412653756154</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.0003333787255393879</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.0003562672005866687</v>
+      </c>
+      <c r="E17">
         <v>0.1288623204467333</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.02246196639969003</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.1687925583727712</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17">
         <v>0.04190168832492826</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.211032329272669</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.07721240277052442</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>0.4702854702627799</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>2.133773803772214</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>2.133796692247262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.02732177166458916</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.7926381672088315</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.0006667574510787757</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.0007125344011733374</v>
+      </c>
+      <c r="E18">
         <v>0.2577246408934666</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.04492393279938005</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.3375851167455424</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.00303657353146554</v>
+      </c>
+      <c r="I18">
+        <v>0.08558249275826008</v>
+      </c>
+      <c r="J18">
         <v>0.05586891776657103</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.2813764390302253</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.06176992221641953</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>0.3762283762102239</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N18" t="n">
-        <v>2.333943783419399</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>2.422608626659219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.01510733256747871</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.4382822806919422</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E19">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.04492393279938005</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.3375851167455424</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19">
         <v>0.06052466091378529</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.3048244756160774</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>0.1080973638787342</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>0.6583996583678919</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>2.045262241084196</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>2.045275974169225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.01478589995966001</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.4289571257836032</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E20">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.03369294959953505</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.2531888375591568</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.01214629412586216</v>
+      </c>
+      <c r="I20">
+        <v>0.3423299710330403</v>
+      </c>
+      <c r="J20">
         <v>0.03724594517771403</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.1875842926868168</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.03088496110820976</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>0.1881141881051119</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>1.251971619483171</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>1.606461617727102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.03857191293824352</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.119018589000703</v>
       </c>
-      <c r="D21" t="n">
-        <v>6.667574510787757e-05</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>7.125344011733375E-05</v>
+      </c>
+      <c r="E21">
         <v>0.02577246408934666</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.04492393279938005</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.3375851167455424</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.006073147062931081</v>
+      </c>
+      <c r="I21">
+        <v>0.1711649855165202</v>
+      </c>
+      <c r="J21">
         <v>0.06052466091378529</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.3048244756160774</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>0.03088496110820976</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>0.1881141881051119</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>2.150286977061508</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>2.327529687335969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.1112156823052688</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3.22650359828536</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.0005334059608630206</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.00057002752093867</v>
+      </c>
+      <c r="E22">
         <v>0.2061797127147733</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.1684647479976752</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1.265944187795784</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.02732916178318985</v>
+      </c>
+      <c r="I22">
+        <v>0.7702424348243407</v>
+      </c>
+      <c r="J22">
         <v>0.1955412121829987</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>0.9848175366057886</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>0.2470796888656781</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>1.504913504840895</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>7.911193277555086</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>8.708801495722692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.1761450690846454</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>5.110184889769878</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.0009334604315102861</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.0009975481616426726</v>
+      </c>
+      <c r="E23">
         <v>0.3608144972508532</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.1796957311975202</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1.35034046698217</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.1062800736012939</v>
+      </c>
+      <c r="I23">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="J23">
         <v>0.3491807360410689</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>1.758602743938908</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>0.5096018582854608</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>3.103884103734346</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.01455592701325122</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.2300434265694257</v>
       </c>
-      <c r="N23" t="n">
-        <v>13.14398291029904</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>16.24571431816957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.2320743428450985</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>6.732761843820898</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.0006000817059708981</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.0006412809610560037</v>
+      </c>
+      <c r="E24">
         <v>0.2319521768041199</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.2807745799961254</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2.109906979659641</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.1153897941956905</v>
+      </c>
+      <c r="I24">
+        <v>3.252134724813883</v>
+      </c>
+      <c r="J24">
         <v>0.3817709380715687</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>1.922739000039873</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>0.3088496110820977</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>1.88114188105112</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N24" t="n">
-        <v>14.18041117650959</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>17.54797689477424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.2346458037076481</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>6.807363083087615</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.0006667574510787757</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.0007125344011733374</v>
+      </c>
+      <c r="E25">
         <v>0.2577246408934666</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.2246196639969003</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>1.687925583727713</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.07895091181810404</v>
+      </c>
+      <c r="I25">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="J25">
         <v>0.2886560751272837</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>1.45377826832283</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>0.4632744166231463</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>2.821712821576679</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.01746711241590146</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.2760521118833107</v>
       </c>
-      <c r="N25" t="n">
-        <v>14.53388633881358</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>16.83802783929653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.2070025994352402</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>6.005399760970445</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.001400190647265429</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.001496322242464008</v>
+      </c>
+      <c r="E26">
         <v>0.5412217458762797</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.4043153951944206</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3.038266050709882</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.08502405888103508</v>
+      </c>
+      <c r="I26">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="J26">
         <v>0.5121317461935677</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>2.579284024443731</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>0.6176992221641954</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>3.76228376210224</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N26" t="n">
-        <v>17.76684423917034</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>20.24827422687785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.1787165299471951</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.184786129036589</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.001400190647265429</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.001496322242464008</v>
+      </c>
+      <c r="E27">
         <v>0.5412217458762797</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.2920055631959704</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.194303258846026</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.05162175003491416</v>
+      </c>
+      <c r="I27">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="J27">
         <v>0.6005908659906385</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>3.024796719574923</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>0.4323894555149367</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>2.633598633471568</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N27" t="n">
-        <v>15.13272896281793</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>16.63934922133846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.2028239755335971</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>5.88417274716203</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.00193359660812845</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.002066349763402679</v>
+      </c>
+      <c r="E28">
         <v>0.7474014585910528</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.2920055631959704</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2.194303258846026</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.06984119122370741</v>
+      </c>
+      <c r="I28">
+        <v>1.968397333439982</v>
+      </c>
+      <c r="J28">
         <v>0.4655743147214253</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>2.344803658585211</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>0.6176992221641954</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>3.76228376210224</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N28" t="n">
-        <v>16.61084129894294</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>18.6492125767619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.1848237494957501</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>5.361964072295039</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.001666893627696939</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.001781336002933344</v>
+      </c>
+      <c r="E29">
         <v>0.6443116022336666</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.3144675295956604</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2.363095817218798</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.05162175003491416</v>
+      </c>
+      <c r="I29">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="J29">
         <v>0.3817709380715687</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>1.922739000039873</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>0.262522169419783</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>1.598970598893452</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N29" t="n">
-        <v>13.18309198304089</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>14.68973055234147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.1867523451426623</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>5.417915001745075</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.001000136176618164</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.001068801601760006</v>
+      </c>
+      <c r="E30">
         <v>0.3865869613402</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>0.2807745799961254</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>2.109906979659641</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.0455486029719831</v>
+      </c>
+      <c r="I30">
+        <v>1.283737391373901</v>
+      </c>
+      <c r="J30">
         <v>0.4655743147214253</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>2.344803658585211</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>0.5096018582854608</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>3.103884103734346</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.01164474161060098</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.1840347412555406</v>
       </c>
-      <c r="N30" t="n">
-        <v>15.00247942225291</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>16.33183408202393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.1873952103582996</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>5.436565311561749</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.001333514902157551</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.001425068802346675</v>
+      </c>
+      <c r="E31">
         <v>0.5154492817869332</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.3593914623950404</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2.700680933964339</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.04858517650344864</v>
+      </c>
+      <c r="I31">
+        <v>1.369319884132161</v>
+      </c>
+      <c r="J31">
         <v>0.5447219482240676</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>2.743420280544697</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>0.3242920916362025</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>1.975198975103675</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N31" t="n">
-        <v>14.88628875191023</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>16.30428536644603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.1960738907694046</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>5.68834449408691</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.001533542137481184</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.001638829122698676</v>
+      </c>
+      <c r="E32">
         <v>0.5927666740549731</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.2807745799961254</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>2.109906979659641</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.0637680441607763</v>
+      </c>
+      <c r="I32">
+        <v>1.797232347923462</v>
+      </c>
+      <c r="J32">
         <v>0.5447219482240676</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>2.743420280544697</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>0.3551770527444122</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>2.163313163208787</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N32" t="n">
-        <v>14.8227922175761</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>16.68389789664556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.2233956624339938</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>6.48098266129574</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.001066811921726041</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.00114005504187734</v>
+      </c>
+      <c r="E33">
         <v>0.4123594254295465</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.4492393279938005</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>3.375851167455425</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.07287776475517294</v>
+      </c>
+      <c r="I33">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="J33">
         <v>0.5074760030463535</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>2.55583598785788</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>0.3397345721903075</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>2.069256069156231</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.008733556207950731</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.1380260559416554</v>
       </c>
-      <c r="N33" t="n">
-        <v>16.56195730093061</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>18.68888813500418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.2719319862146168</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>7.889081052454955</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.001600217882589062</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.001710082562816011</v>
+      </c>
+      <c r="E34">
         <v>0.6185391381443198</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.2807745799961254</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>2.109906979659641</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.06680461769224183</v>
+      </c>
+      <c r="I34">
+        <v>1.882814840681722</v>
+      </c>
+      <c r="J34">
         <v>0.442295598985354</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>2.227563475655951</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>0.2470796888656781</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>1.504913504840895</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N34" t="n">
-        <v>15.64260609341666</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>17.59233541647085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.2655033340582427</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>7.702577954288175</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.000466730215755143</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.0004987740808213363</v>
+      </c>
+      <c r="E35">
         <v>0.1804072486254266</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.3032365463958154</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2.278699538032412</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.07895091181810404</v>
+      </c>
+      <c r="I35">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="J35">
         <v>0.2327871573607126</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>1.172401829292606</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.1544248055410488</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>0.9405709405255599</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N35" t="n">
-        <v>13.32891582576882</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>15.63304359316676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.2340029384920106</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>6.788712773270935</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0008001089412945309</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.0008550412814080053</v>
+      </c>
+      <c r="E36">
         <v>0.3092695690721599</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.2133886807970554</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>1.603529304541327</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.1062800736012939</v>
+      </c>
+      <c r="I36">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="J36">
         <v>0.1676067532997131</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.844129317090676</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.262522169419783</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>1.598970598893452</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N36" t="n">
-        <v>12.12077195525148</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>15.22249420773199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.1838594516722941</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>5.333988607570021</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.0004000544706472655</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.0004275206407040026</v>
+      </c>
+      <c r="E37">
         <v>0.15463478453608</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.1684647479976752</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>1.265944187795784</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.08502405888103508</v>
+      </c>
+      <c r="I37">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="J37">
         <v>0.1489837807108561</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.7503371707472674</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.1389823249869439</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>0.8465138464730039</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N37" t="n">
-        <v>9.041028827677108</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>11.52239014995948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.1443232409105945</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.186994553844299</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.0006000817059708981</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.0006412809610560037</v>
+      </c>
+      <c r="E38">
         <v>0.2319521768041199</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.1572337647978302</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1.181547908609399</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.09717035300689729</v>
+      </c>
+      <c r="I38">
+        <v>2.738639768264322</v>
+      </c>
+      <c r="J38">
         <v>0.09777060609149933</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.4924087683028943</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.09265488332462926</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>0.5643425643153358</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>7.149828548706571</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>9.985679869232877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.09482261930651532</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2.750920697960063</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.0002667029804315103</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.000285013760469335</v>
+      </c>
+      <c r="E39">
         <v>0.1030898563573866</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.06738589919907009</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.5063776751183137</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.05465832356637971</v>
+      </c>
+      <c r="I39">
+        <v>1.540484869648681</v>
+      </c>
+      <c r="J39">
         <v>0.06983614720821379</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.3517205487877815</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.1080973638787342</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.6583996583678919</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.002911185402650244</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.04600868531388514</v>
       </c>
-      <c r="N39" t="n">
-        <v>4.759837039880937</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>6.354998543876036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.04917918899626048</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.426748700975897</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.0007334331961866533</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.0007837878412906713</v>
+      </c>
+      <c r="E40">
         <v>0.2834971049828132</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.08984786559876011</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.6751702334910848</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.02429258825172432</v>
+      </c>
+      <c r="I40">
+        <v>0.6846599420660806</v>
+      </c>
+      <c r="J40">
         <v>0.08380337664985653</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.422064658545338</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.07721240277052442</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>0.4702854702627799</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>3.578542435469501</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>4.28754532043241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.03375042382096308</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.9791412653756154</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.0003333787255393879</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.0003562672005866687</v>
+      </c>
+      <c r="E41">
         <v>0.1288623204467333</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.02246196639969003</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.1687925583727712</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41">
         <v>0.04190168832492826</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.211032329272669</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.07721240277052442</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>0.4702854702627799</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>2.133773803772214</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>2.133796692247262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.02732177166458916</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.7926381672088315</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.0006667574510787757</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.0007125344011733374</v>
+      </c>
+      <c r="E42">
         <v>0.2577246408934666</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.04492393279938005</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.3375851167455424</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.00303657353146554</v>
+      </c>
+      <c r="I42">
+        <v>0.08558249275826008</v>
+      </c>
+      <c r="J42">
         <v>0.05586891776657103</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.2813764390302253</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.06176992221641953</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>0.3762283762102239</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N42" t="n">
-        <v>2.333943783419399</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>2.422608626659219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.01510733256747871</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.4382822806919422</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E43">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.04492393279938005</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.3375851167455424</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43">
         <v>0.06052466091378529</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.3048244756160774</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>0.1080973638787342</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>0.6583996583678919</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>2.045262241084196</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>2.045275974169225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.01478589995966001</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.4289571257836032</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0002000272353236327</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.0002137603203520013</v>
+      </c>
+      <c r="E44">
         <v>0.07731739226803998</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.03369294959953505</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.2531888375591568</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.01214629412586216</v>
+      </c>
+      <c r="I44">
+        <v>0.3423299710330403</v>
+      </c>
+      <c r="J44">
         <v>0.03724594517771403</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.1875842926868168</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.03088496110820976</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>0.1881141881051119</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>1.251971619483171</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>1.606461617727102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.03857191293824352</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.119018589000703</v>
       </c>
-      <c r="D45" t="n">
-        <v>6.667574510787757e-05</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>7.125344011733375E-05</v>
+      </c>
+      <c r="E45">
         <v>0.02577246408934666</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.04492393279938005</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.3375851167455424</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.006073147062931081</v>
+      </c>
+      <c r="I45">
+        <v>0.1711649855165202</v>
+      </c>
+      <c r="J45">
         <v>0.06052466091378529</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>0.3048244756160774</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>0.03088496110820976</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>0.1881141881051119</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>2.150286977061508</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>2.327529687335969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.1112156823052688</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>3.22650359828536</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.0005334059608630206</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.00057002752093867</v>
+      </c>
+      <c r="E46">
         <v>0.2061797127147733</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.1684647479976752</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>1.265944187795784</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.02732916178318985</v>
+      </c>
+      <c r="I46">
+        <v>0.7702424348243407</v>
+      </c>
+      <c r="J46">
         <v>0.1955412121829987</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>0.9848175366057886</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>0.2470796888656781</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>1.504913504840895</v>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
-        <v>7.911193277555086</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>8.708801495722692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.1761450690846454</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>5.110184889769878</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.0009334604315102861</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.0009975481616426726</v>
+      </c>
+      <c r="E47">
         <v>0.3608144972508532</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.1796957311975202</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.35034046698217</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.1062800736012939</v>
+      </c>
+      <c r="I47">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="J47">
         <v>0.3491807360410689</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>1.758602743938908</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>0.5096018582854608</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>3.103884103734346</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.01455592701325122</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.2300434265694257</v>
       </c>
-      <c r="N47" t="n">
-        <v>13.14398291029904</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>16.24571431816957</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.2320743428450985</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>6.732761843820898</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.0006000817059708981</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.0006412809610560037</v>
+      </c>
+      <c r="E48">
         <v>0.2319521768041199</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.2807745799961254</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>2.109906979659641</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.1153897941956905</v>
+      </c>
+      <c r="I48">
+        <v>3.252134724813883</v>
+      </c>
+      <c r="J48">
         <v>0.3817709380715687</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>1.922739000039873</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>0.3088496110820977</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>1.88114188105112</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.005822370805300488</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.09201737062777028</v>
       </c>
-      <c r="N48" t="n">
-        <v>14.18041117650959</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>17.54797689477424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.2346458037076481</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>6.807363083087615</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.0006667574510787757</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.0007125344011733374</v>
+      </c>
+      <c r="E49">
         <v>0.2577246408934666</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.2246196639969003</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>1.687925583727713</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.07895091181810404</v>
+      </c>
+      <c r="I49">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="J49">
         <v>0.2886560751272837</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>1.45377826832283</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>0.4632744166231463</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>2.821712821576679</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.01746711241590146</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.2760521118833107</v>
       </c>
-      <c r="N49" t="n">
-        <v>14.53388633881358</v>
+      <c r="P49">
+        <v>16.83802783929653</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.2070025994352402</v>
+        <v>0.9175250353345782</v>
       </c>
       <c r="C2">
-        <v>6.005399760970445</v>
+        <v>26.61852867024736</v>
       </c>
       <c r="D2">
-        <v>0.001496322242464008</v>
+        <v>0.006632347236867497</v>
       </c>
       <c r="E2">
-        <v>0.5412217458762797</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="F2">
-        <v>0.4043153951944206</v>
+        <v>1.792100670591486</v>
       </c>
       <c r="G2">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H2">
-        <v>0.08502405888103508</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I2">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J2">
-        <v>0.5121317461935677</v>
+        <v>2.269989361506625</v>
       </c>
       <c r="K2">
-        <v>2.579284024443731</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="L2">
-        <v>0.6176992221641954</v>
+        <v>2.737910065808865</v>
       </c>
       <c r="M2">
-        <v>3.76228376210224</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="N2">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O2">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P2">
-        <v>20.24827422687785</v>
+        <v>89.74910738399912</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,43 +530,43 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.237860129785835</v>
+        <v>1.054298953645323</v>
       </c>
       <c r="C3">
-        <v>6.900614632171004</v>
+        <v>30.58650809935257</v>
       </c>
       <c r="D3">
-        <v>0.001781336002933344</v>
+        <v>0.007895651472461306</v>
       </c>
       <c r="E3">
-        <v>0.6443116022336666</v>
+        <v>2.855867642333008</v>
       </c>
       <c r="F3">
-        <v>0.2695435967962804</v>
+        <v>1.194733780394323</v>
       </c>
       <c r="G3">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H3">
-        <v>0.04858517650344864</v>
+        <v>0.2153505120693398</v>
       </c>
       <c r="I3">
-        <v>1.369319884132161</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="J3">
-        <v>0.642492554315567</v>
+        <v>2.847804835344676</v>
       </c>
       <c r="K3">
-        <v>3.235829048847591</v>
+        <v>14.34259362191905</v>
       </c>
       <c r="L3">
-        <v>0.9574337943545029</v>
+        <v>4.243760602003741</v>
       </c>
       <c r="M3">
-        <v>5.831539831258472</v>
+        <v>25.8479062790916</v>
       </c>
       <c r="P3">
-        <v>22.16482228687472</v>
+        <v>98.24407716344467</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -574,49 +574,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.1938238625146737</v>
+        <v>0.8591111743893649</v>
       </c>
       <c r="C4">
-        <v>5.623068409728535</v>
+        <v>24.923870789067</v>
       </c>
       <c r="D4">
-        <v>0.001282561922112007</v>
+        <v>0.00568486906017214</v>
       </c>
       <c r="E4">
-        <v>0.4639043536082399</v>
+        <v>2.056224702479765</v>
       </c>
       <c r="F4">
-        <v>0.2133886807970554</v>
+        <v>0.9458309094788397</v>
       </c>
       <c r="G4">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H4">
-        <v>0.08198748534956958</v>
+        <v>0.363403989117011</v>
       </c>
       <c r="I4">
-        <v>2.310727304473023</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="J4">
-        <v>0.5028202598991393</v>
+        <v>2.22871682766105</v>
       </c>
       <c r="K4">
-        <v>2.532387951272027</v>
+        <v>11.22463848671926</v>
       </c>
       <c r="L4">
-        <v>0.6331417027183001</v>
+        <v>2.806357817454086</v>
       </c>
       <c r="M4">
-        <v>3.856340856154794</v>
+        <v>17.09297028133476</v>
       </c>
       <c r="N4">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O4">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P4">
-        <v>18.11424247441186</v>
+        <v>80.29015583252827</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -624,49 +624,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.2217884993949002</v>
+        <v>0.9830625378584767</v>
       </c>
       <c r="C5">
-        <v>6.434356886754047</v>
+        <v>28.5198521466936</v>
       </c>
       <c r="D5">
-        <v>0.001710082562816011</v>
+        <v>0.007579825413562854</v>
       </c>
       <c r="E5">
-        <v>0.6185391381443198</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="F5">
-        <v>0.3256985127955056</v>
+        <v>1.443636651309808</v>
       </c>
       <c r="G5">
-        <v>2.447492096405183</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="H5">
-        <v>0.05465832356637971</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I5">
-        <v>1.540484869648681</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J5">
-        <v>0.4888530304574965</v>
+        <v>2.166808026892687</v>
       </c>
       <c r="K5">
-        <v>2.462043841514472</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="L5">
-        <v>0.4478319360690418</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M5">
-        <v>2.727655727524123</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N5">
-        <v>0.01164474161060098</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O5">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P5">
-        <v>17.96679242770311</v>
+        <v>79.63659346333267</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -674,49 +674,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.2108597907290646</v>
+        <v>0.9346217751234212</v>
       </c>
       <c r="C6">
-        <v>6.117301619870513</v>
+        <v>27.1145260988855</v>
       </c>
       <c r="D6">
-        <v>0.002351363523872013</v>
+        <v>0.01042225994364892</v>
       </c>
       <c r="E6">
-        <v>0.8504913149484395</v>
+        <v>3.76974528787957</v>
       </c>
       <c r="F6">
-        <v>0.2695435967962804</v>
+        <v>1.194733780394323</v>
       </c>
       <c r="G6">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H6">
-        <v>0.05162175003491416</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I6">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J6">
-        <v>0.4841972873102823</v>
+        <v>2.1461717599699</v>
       </c>
       <c r="K6">
-        <v>2.438595804928619</v>
+        <v>10.80891113535928</v>
       </c>
       <c r="L6">
-        <v>0.6022567416100902</v>
+        <v>2.669462314163642</v>
       </c>
       <c r="M6">
-        <v>3.668226668049683</v>
+        <v>16.25916685297697</v>
       </c>
       <c r="N6">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O6">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P6">
-        <v>18.22477888588197</v>
+        <v>80.78010100769303</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -724,49 +724,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.2066811668274215</v>
+        <v>0.9161003070188408</v>
       </c>
       <c r="C7">
-        <v>5.996074606062101</v>
+        <v>26.57719555119419</v>
       </c>
       <c r="D7">
-        <v>0.001353815362229341</v>
+        <v>0.006000695119070593</v>
       </c>
       <c r="E7">
-        <v>0.4896768176975864</v>
+        <v>2.170459408173086</v>
       </c>
       <c r="F7">
-        <v>0.2133886807970554</v>
+        <v>0.9458309094788397</v>
       </c>
       <c r="G7">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H7">
-        <v>0.06984119122370741</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I7">
-        <v>1.968397333439982</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J7">
-        <v>0.5447219482240676</v>
+        <v>2.414443229966138</v>
       </c>
       <c r="K7">
-        <v>2.743420280544697</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="L7">
-        <v>0.5559292999477756</v>
+        <v>2.46411905922798</v>
       </c>
       <c r="M7">
-        <v>3.386055385892015</v>
+        <v>15.00846171044029</v>
       </c>
       <c r="N7">
-        <v>0.0262006686238522</v>
+        <v>0.1161326933597773</v>
       </c>
       <c r="O7">
-        <v>0.4140781678249662</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="P7">
-        <v>18.21934866700878</v>
+        <v>80.75603192944436</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -774,49 +774,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.1992882168475914</v>
+        <v>0.8833315557568917</v>
       </c>
       <c r="C8">
-        <v>5.7815960431703</v>
+        <v>25.62653381297106</v>
       </c>
       <c r="D8">
-        <v>0.002066349763402679</v>
+        <v>0.009158955708055116</v>
       </c>
       <c r="E8">
-        <v>0.7474014585910528</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="F8">
-        <v>0.2246196639969003</v>
+        <v>0.9956114836619364</v>
       </c>
       <c r="G8">
-        <v>1.687925583727713</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="H8">
-        <v>0.06073147062931077</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I8">
-        <v>1.711649855165201</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J8">
-        <v>0.516787489340782</v>
+        <v>2.290625628429412</v>
       </c>
       <c r="K8">
-        <v>2.602732061029585</v>
+        <v>11.53643400023923</v>
       </c>
       <c r="L8">
-        <v>0.4632744166231463</v>
+        <v>2.053432549356649</v>
       </c>
       <c r="M8">
-        <v>2.821712821576679</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="N8">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O8">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P8">
-        <v>16.96654504261127</v>
+        <v>75.2030645131959</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -824,49 +824,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.2233956624339938</v>
+        <v>0.9901861794371611</v>
       </c>
       <c r="C9">
-        <v>6.48098266129574</v>
+        <v>28.72651774195949</v>
       </c>
       <c r="D9">
-        <v>0.00114005504187734</v>
+        <v>0.005053216942375235</v>
       </c>
       <c r="E9">
-        <v>0.4123594254295465</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="F9">
-        <v>0.4492393279938005</v>
+        <v>1.991222967323873</v>
       </c>
       <c r="G9">
-        <v>3.375851167455425</v>
+        <v>14.96323220169431</v>
       </c>
       <c r="H9">
-        <v>0.07287776475517294</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I9">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J9">
-        <v>0.5074760030463535</v>
+        <v>2.249353094583837</v>
       </c>
       <c r="K9">
-        <v>2.55583598785788</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="L9">
-        <v>0.3397345721903075</v>
+        <v>1.505850536194876</v>
       </c>
       <c r="M9">
-        <v>2.069256069156231</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="N9">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O9">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P9">
-        <v>18.68888813500418</v>
+        <v>82.8372338956942</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.2719319862146168</v>
+        <v>1.205320155113437</v>
       </c>
       <c r="C10">
-        <v>7.889081052454955</v>
+        <v>34.96781871898955</v>
       </c>
       <c r="D10">
-        <v>0.001710082562816011</v>
+        <v>0.007579825413562854</v>
       </c>
       <c r="E10">
-        <v>0.6185391381443198</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="F10">
-        <v>0.2807745799961254</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G10">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H10">
-        <v>0.06680461769224183</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I10">
-        <v>1.882814840681722</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J10">
-        <v>0.442295598985354</v>
+        <v>1.960445357664812</v>
       </c>
       <c r="K10">
-        <v>2.227563475655951</v>
+        <v>9.873524594799347</v>
       </c>
       <c r="L10">
-        <v>0.2470796888656781</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M10">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="N10">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O10">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P10">
-        <v>17.59233541647085</v>
+        <v>77.97683806219514</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.2655033340582427</v>
+        <v>1.176825588798698</v>
       </c>
       <c r="C11">
-        <v>7.702577954288175</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="D11">
-        <v>0.0004987740808213363</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E11">
-        <v>0.1804072486254266</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F11">
-        <v>0.3032365463958154</v>
+        <v>1.344075502943614</v>
       </c>
       <c r="G11">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H11">
-        <v>0.07895091181810404</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I11">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J11">
-        <v>0.2327871573607126</v>
+        <v>1.031813346139375</v>
       </c>
       <c r="K11">
-        <v>1.172401829292606</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="L11">
-        <v>0.1544248055410488</v>
+        <v>0.6844775164522163</v>
       </c>
       <c r="M11">
-        <v>0.9405709405255599</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="N11">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O11">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P11">
-        <v>15.63304359316676</v>
+        <v>69.29240943998238</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.2340029384920106</v>
+        <v>1.03720221385648</v>
       </c>
       <c r="C12">
-        <v>6.788712773270935</v>
+        <v>30.09051067071441</v>
       </c>
       <c r="D12">
-        <v>0.0008550412814080053</v>
+        <v>0.003789912706781427</v>
       </c>
       <c r="E12">
-        <v>0.3092695690721599</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="F12">
-        <v>0.2133886807970554</v>
+        <v>0.9458309094788397</v>
       </c>
       <c r="G12">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H12">
-        <v>0.1062800736012939</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I12">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J12">
-        <v>0.1676067532997131</v>
+        <v>0.74290560922035</v>
       </c>
       <c r="K12">
-        <v>0.844129317090676</v>
+        <v>3.741546162239753</v>
       </c>
       <c r="L12">
-        <v>0.262522169419783</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M12">
-        <v>1.598970598893452</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N12">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O12">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P12">
-        <v>15.22249420773199</v>
+        <v>67.4726770288661</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.1838594516722941</v>
+        <v>0.8149445966015193</v>
       </c>
       <c r="C13">
-        <v>5.333988607570021</v>
+        <v>23.64254409841846</v>
       </c>
       <c r="D13">
-        <v>0.0004275206407040026</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E13">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F13">
-        <v>0.1684647479976752</v>
+        <v>0.7467086127464528</v>
       </c>
       <c r="G13">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H13">
-        <v>0.08502405888103508</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I13">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J13">
-        <v>0.1489837807108561</v>
+        <v>0.6603605415291999</v>
       </c>
       <c r="K13">
-        <v>0.7503371707472674</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="L13">
-        <v>0.1389823249869439</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M13">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N13">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O13">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P13">
-        <v>11.52239014995948</v>
+        <v>51.0722157998204</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.1443232409105945</v>
+        <v>0.6397030137658782</v>
       </c>
       <c r="C14">
-        <v>4.186994553844299</v>
+        <v>18.55857045487744</v>
       </c>
       <c r="D14">
-        <v>0.0006412809610560037</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E14">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F14">
-        <v>0.1572337647978302</v>
+        <v>0.6969280385633554</v>
       </c>
       <c r="G14">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H14">
-        <v>0.09717035300689729</v>
+        <v>0.4307010241386797</v>
       </c>
       <c r="I14">
-        <v>2.738639768264322</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="J14">
-        <v>0.09777060609149933</v>
+        <v>0.4333616053785375</v>
       </c>
       <c r="K14">
-        <v>0.4924087683028943</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="L14">
-        <v>0.09265488332462926</v>
+        <v>0.4106865098713298</v>
       </c>
       <c r="M14">
-        <v>0.5643425643153358</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="P14">
-        <v>9.985679869232877</v>
+        <v>44.26085131227546</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,49 +1118,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.09482261930651532</v>
+        <v>0.4202948531423921</v>
       </c>
       <c r="C15">
-        <v>2.750920697960063</v>
+        <v>12.19327012068785</v>
       </c>
       <c r="D15">
-        <v>0.000285013760469335</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E15">
-        <v>0.1030898563573866</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F15">
-        <v>0.06738589919907009</v>
+        <v>0.2986834450985809</v>
       </c>
       <c r="G15">
-        <v>0.5063776751183137</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H15">
-        <v>0.05465832356637971</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I15">
-        <v>1.540484869648681</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J15">
-        <v>0.06983614720821379</v>
+        <v>0.3095440038418125</v>
       </c>
       <c r="K15">
-        <v>0.3517205487877815</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L15">
-        <v>0.1080973638787342</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M15">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="N15">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O15">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P15">
-        <v>6.354998543876036</v>
+        <v>28.16810165393703</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,43 +1168,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.04917918899626048</v>
+        <v>0.217983432307749</v>
       </c>
       <c r="C16">
-        <v>1.426748700975897</v>
+        <v>6.32396721513641</v>
       </c>
       <c r="D16">
-        <v>0.0007837878412906713</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E16">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F16">
-        <v>0.08984786559876011</v>
+        <v>0.3982445934647745</v>
       </c>
       <c r="G16">
-        <v>0.6751702334910848</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H16">
-        <v>0.02429258825172432</v>
+        <v>0.1076752560346699</v>
       </c>
       <c r="I16">
-        <v>0.6846599420660806</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="J16">
-        <v>0.08380337664985653</v>
+        <v>0.371452804610175</v>
       </c>
       <c r="K16">
-        <v>0.422064658545338</v>
+        <v>1.870773081119876</v>
       </c>
       <c r="L16">
-        <v>0.07721240277052442</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M16">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P16">
-        <v>4.28754532043241</v>
+        <v>19.00425493380852</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1212,37 +1212,37 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.03375042382096308</v>
+        <v>0.1495964731523768</v>
       </c>
       <c r="C17">
-        <v>0.9791412653756154</v>
+        <v>4.339977500583809</v>
       </c>
       <c r="D17">
-        <v>0.0003562672005866687</v>
+        <v>0.001579130294492261</v>
       </c>
       <c r="E17">
-        <v>0.1288623204467333</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="F17">
-        <v>0.02246196639969003</v>
+        <v>0.09956114836619363</v>
       </c>
       <c r="G17">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="J17">
-        <v>0.04190168832492826</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K17">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L17">
-        <v>0.07721240277052442</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M17">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P17">
-        <v>2.133796692247262</v>
+        <v>9.457909662933806</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,49 +1250,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.02732177166458916</v>
+        <v>0.1211019068376385</v>
       </c>
       <c r="C18">
-        <v>0.7926381672088315</v>
+        <v>3.513315119520227</v>
       </c>
       <c r="D18">
-        <v>0.0007125344011733374</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E18">
-        <v>0.2577246408934666</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F18">
-        <v>0.04492393279938005</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G18">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H18">
-        <v>0.00303657353146554</v>
+        <v>0.01345940700433374</v>
       </c>
       <c r="I18">
-        <v>0.08558249275826008</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="J18">
-        <v>0.05586891776657103</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K18">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L18">
-        <v>0.06176992221641953</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M18">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="N18">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O18">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P18">
-        <v>2.422608626659219</v>
+        <v>10.73804904789492</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,37 +1300,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.01510733256747871</v>
+        <v>0.06696223083963536</v>
       </c>
       <c r="C19">
-        <v>0.4382822806919422</v>
+        <v>1.942656595499419</v>
       </c>
       <c r="D19">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E19">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F19">
-        <v>0.04492393279938005</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G19">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="J19">
-        <v>0.06052466091378529</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K19">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L19">
-        <v>0.1080973638787342</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M19">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="P19">
-        <v>2.045275974169225</v>
+        <v>9.065547561182505</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1338,43 +1338,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.01478589995966001</v>
+        <v>0.06553750252389845</v>
       </c>
       <c r="C20">
-        <v>0.4289571257836032</v>
+        <v>1.90132347644624</v>
       </c>
       <c r="D20">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E20">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F20">
-        <v>0.03369294959953505</v>
+        <v>0.1493417225492904</v>
       </c>
       <c r="G20">
-        <v>0.2531888375591568</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="H20">
-        <v>0.01214629412586216</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I20">
-        <v>0.3423299710330403</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J20">
-        <v>0.03724594517771403</v>
+        <v>0.1650901353823</v>
       </c>
       <c r="K20">
-        <v>0.1875842926868168</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="L20">
-        <v>0.03088496110820976</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M20">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P20">
-        <v>1.606461617727102</v>
+        <v>7.120532575871477</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,43 +1382,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.03857191293824352</v>
+        <v>0.1709673978884308</v>
       </c>
       <c r="C21">
-        <v>1.119018589000703</v>
+        <v>4.959974286381497</v>
       </c>
       <c r="D21">
-        <v>7.125344011733375E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E21">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F21">
-        <v>0.04492393279938005</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G21">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H21">
-        <v>0.006073147062931081</v>
+        <v>0.02691881400866748</v>
       </c>
       <c r="I21">
-        <v>0.1711649855165202</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="J21">
-        <v>0.06052466091378529</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K21">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L21">
-        <v>0.03088496110820976</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M21">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P21">
-        <v>2.327529687335969</v>
+        <v>10.31661807359727</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1426,43 +1426,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.1112156823052688</v>
+        <v>0.4929559972449754</v>
       </c>
       <c r="C22">
-        <v>3.22650359828536</v>
+        <v>14.30125919239998</v>
       </c>
       <c r="D22">
-        <v>0.00057002752093867</v>
+        <v>0.002526608471187618</v>
       </c>
       <c r="E22">
-        <v>0.2061797127147733</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="F22">
-        <v>0.1684647479976752</v>
+        <v>0.7467086127464528</v>
       </c>
       <c r="G22">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H22">
-        <v>0.02732916178318985</v>
+        <v>0.1211346630390037</v>
       </c>
       <c r="I22">
-        <v>0.7702424348243407</v>
+        <v>3.414047548951131</v>
       </c>
       <c r="J22">
-        <v>0.1955412121829987</v>
+        <v>0.866723210757075</v>
       </c>
       <c r="K22">
-        <v>0.9848175366057886</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="L22">
-        <v>0.2470796888656781</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M22">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="P22">
-        <v>8.708801495722692</v>
+        <v>38.60117419725734</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.1761450690846454</v>
+        <v>0.7807511170238336</v>
       </c>
       <c r="C23">
-        <v>5.110184889769878</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="D23">
-        <v>0.0009975481616426726</v>
+        <v>0.004421564824578333</v>
       </c>
       <c r="E23">
-        <v>0.3608144972508532</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="F23">
-        <v>0.1796957311975202</v>
+        <v>0.7964891869295491</v>
       </c>
       <c r="G23">
-        <v>1.35034046698217</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="H23">
-        <v>0.1062800736012939</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I23">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J23">
-        <v>0.3491807360410689</v>
+        <v>1.547720019209063</v>
       </c>
       <c r="K23">
-        <v>1.758602743938908</v>
+        <v>7.794887837999485</v>
       </c>
       <c r="L23">
-        <v>0.5096018582854608</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M23">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N23">
-        <v>0.01455592701325122</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O23">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P23">
-        <v>16.24571431816957</v>
+        <v>72.00803103188674</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.2320743428450985</v>
+        <v>1.028653843962058</v>
       </c>
       <c r="C24">
-        <v>6.732761843820898</v>
+        <v>29.84251195639533</v>
       </c>
       <c r="D24">
-        <v>0.0006412809610560037</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E24">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F24">
-        <v>0.2807745799961254</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G24">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H24">
-        <v>0.1153897941956905</v>
+        <v>0.5114574661646821</v>
       </c>
       <c r="I24">
-        <v>3.252134724813883</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="J24">
-        <v>0.3817709380715687</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K24">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L24">
-        <v>0.3088496110820977</v>
+        <v>1.368955032904433</v>
       </c>
       <c r="M24">
-        <v>1.88114188105112</v>
+        <v>8.338034283577935</v>
       </c>
       <c r="N24">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O24">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P24">
-        <v>17.54797689477424</v>
+        <v>77.78022191197232</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.2346458037076481</v>
+        <v>1.040051670487953</v>
       </c>
       <c r="C25">
-        <v>6.807363083087615</v>
+        <v>30.17317690882076</v>
       </c>
       <c r="D25">
-        <v>0.0007125344011733374</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E25">
-        <v>0.2577246408934666</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F25">
-        <v>0.2246196639969003</v>
+        <v>0.9956114836619364</v>
       </c>
       <c r="G25">
-        <v>1.687925583727713</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="H25">
-        <v>0.07895091181810404</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I25">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J25">
-        <v>0.2886560751272837</v>
+        <v>1.279448549212825</v>
       </c>
       <c r="K25">
-        <v>1.45377826832283</v>
+        <v>6.443773946079574</v>
       </c>
       <c r="L25">
-        <v>0.4632744166231463</v>
+        <v>2.053432549356649</v>
       </c>
       <c r="M25">
-        <v>2.821712821576679</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="N25">
-        <v>0.01746711241590146</v>
+        <v>0.07742179557318483</v>
       </c>
       <c r="O25">
-        <v>0.2760521118833107</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="P25">
-        <v>16.83802783929653</v>
+        <v>74.63342069309813</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.2070025994352402</v>
+        <v>0.9175250353345782</v>
       </c>
       <c r="C26">
-        <v>6.005399760970445</v>
+        <v>26.61852867024736</v>
       </c>
       <c r="D26">
-        <v>0.001496322242464008</v>
+        <v>0.006632347236867497</v>
       </c>
       <c r="E26">
-        <v>0.5412217458762797</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="F26">
-        <v>0.4043153951944206</v>
+        <v>1.792100670591486</v>
       </c>
       <c r="G26">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H26">
-        <v>0.08502405888103508</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I26">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J26">
-        <v>0.5121317461935677</v>
+        <v>2.269989361506625</v>
       </c>
       <c r="K26">
-        <v>2.579284024443731</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="L26">
-        <v>0.6176992221641954</v>
+        <v>2.737910065808865</v>
       </c>
       <c r="M26">
-        <v>3.76228376210224</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="N26">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O26">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P26">
-        <v>20.24827422687785</v>
+        <v>89.74910738399912</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.1787165299471951</v>
+        <v>0.7921489435497293</v>
       </c>
       <c r="C27">
-        <v>5.184786129036589</v>
+        <v>22.98121419356761</v>
       </c>
       <c r="D27">
-        <v>0.001496322242464008</v>
+        <v>0.006632347236867497</v>
       </c>
       <c r="E27">
-        <v>0.5412217458762797</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="F27">
-        <v>0.2920055631959704</v>
+        <v>1.294294928760518</v>
       </c>
       <c r="G27">
-        <v>2.194303258846026</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="H27">
-        <v>0.05162175003491416</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I27">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J27">
-        <v>0.6005908659906385</v>
+        <v>2.662078433039587</v>
       </c>
       <c r="K27">
-        <v>3.024796719574923</v>
+        <v>13.40720708135911</v>
       </c>
       <c r="L27">
-        <v>0.4323894555149367</v>
+        <v>1.916537046066205</v>
       </c>
       <c r="M27">
-        <v>2.633598633471568</v>
+        <v>11.67324799700911</v>
       </c>
       <c r="N27">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O27">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P27">
-        <v>16.63934922133846</v>
+        <v>73.75279114322994</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.2028239755335971</v>
+        <v>0.8990035672299979</v>
       </c>
       <c r="C28">
-        <v>5.88417274716203</v>
+        <v>26.08119812255603</v>
       </c>
       <c r="D28">
-        <v>0.002066349763402679</v>
+        <v>0.009158955708055116</v>
       </c>
       <c r="E28">
-        <v>0.7474014585910528</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="F28">
-        <v>0.2920055631959704</v>
+        <v>1.294294928760518</v>
       </c>
       <c r="G28">
-        <v>2.194303258846026</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="H28">
-        <v>0.06984119122370741</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I28">
-        <v>1.968397333439982</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J28">
-        <v>0.4655743147214253</v>
+        <v>2.063626692278749</v>
       </c>
       <c r="K28">
-        <v>2.344803658585211</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="L28">
-        <v>0.6176992221641954</v>
+        <v>2.737910065808865</v>
       </c>
       <c r="M28">
-        <v>3.76228376210224</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="N28">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O28">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P28">
-        <v>18.6492125767619</v>
+        <v>82.6613746645663</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.1848237494957501</v>
+        <v>0.8192187815487303</v>
       </c>
       <c r="C29">
-        <v>5.361964072295039</v>
+        <v>23.766543455578</v>
       </c>
       <c r="D29">
-        <v>0.001781336002933344</v>
+        <v>0.007895651472461306</v>
       </c>
       <c r="E29">
-        <v>0.6443116022336666</v>
+        <v>2.855867642333008</v>
       </c>
       <c r="F29">
-        <v>0.3144675295956604</v>
+        <v>1.393856077126711</v>
       </c>
       <c r="G29">
-        <v>2.363095817218798</v>
+        <v>10.47426254118602</v>
       </c>
       <c r="H29">
-        <v>0.05162175003491416</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I29">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J29">
-        <v>0.3817709380715687</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K29">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L29">
-        <v>0.262522169419783</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M29">
-        <v>1.598970598893452</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N29">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O29">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P29">
-        <v>14.68973055234147</v>
+        <v>65.11123812389188</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.1867523451426623</v>
+        <v>0.827767151443152</v>
       </c>
       <c r="C30">
-        <v>5.417915001745075</v>
+        <v>24.01454216989708</v>
       </c>
       <c r="D30">
-        <v>0.001068801601760006</v>
+        <v>0.004737390883476786</v>
       </c>
       <c r="E30">
-        <v>0.3865869613402</v>
+        <v>1.713520585399804</v>
       </c>
       <c r="F30">
-        <v>0.2807745799961254</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G30">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H30">
-        <v>0.0455486029719831</v>
+        <v>0.2018911050650061</v>
       </c>
       <c r="I30">
-        <v>1.283737391373901</v>
+        <v>5.690079248251886</v>
       </c>
       <c r="J30">
-        <v>0.4655743147214253</v>
+        <v>2.063626692278749</v>
       </c>
       <c r="K30">
-        <v>2.344803658585211</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="L30">
-        <v>0.5096018582854608</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M30">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N30">
-        <v>0.01164474161060098</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O30">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P30">
-        <v>16.33183408202393</v>
+        <v>72.38975106626823</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.1873952103582996</v>
+        <v>0.8306166080746257</v>
       </c>
       <c r="C31">
-        <v>5.436565311561749</v>
+        <v>24.09720840800344</v>
       </c>
       <c r="D31">
-        <v>0.001425068802346675</v>
+        <v>0.006316521177969045</v>
       </c>
       <c r="E31">
-        <v>0.5154492817869332</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="F31">
-        <v>0.3593914623950404</v>
+        <v>1.592978373859098</v>
       </c>
       <c r="G31">
-        <v>2.700680933964339</v>
+        <v>11.97058576135545</v>
       </c>
       <c r="H31">
-        <v>0.04858517650344864</v>
+        <v>0.2153505120693398</v>
       </c>
       <c r="I31">
-        <v>1.369319884132161</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="J31">
-        <v>0.5447219482240676</v>
+        <v>2.414443229966138</v>
       </c>
       <c r="K31">
-        <v>2.743420280544697</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="L31">
-        <v>0.3242920916362025</v>
+        <v>1.437402784549655</v>
       </c>
       <c r="M31">
-        <v>1.975198975103675</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="N31">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O31">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P31">
-        <v>16.30428536644603</v>
+        <v>72.26764324586891</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,49 +1920,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.1960738907694046</v>
+        <v>0.8690842725995225</v>
       </c>
       <c r="C32">
-        <v>5.68834449408691</v>
+        <v>25.21320262243926</v>
       </c>
       <c r="D32">
-        <v>0.001638829122698676</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E32">
-        <v>0.5927666740549731</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="F32">
-        <v>0.2807745799961254</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G32">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H32">
-        <v>0.0637680441607763</v>
+        <v>0.2826475470910085</v>
       </c>
       <c r="I32">
-        <v>1.797232347923462</v>
+        <v>7.96611094755264</v>
       </c>
       <c r="J32">
-        <v>0.5447219482240676</v>
+        <v>2.414443229966138</v>
       </c>
       <c r="K32">
-        <v>2.743420280544697</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="L32">
-        <v>0.3551770527444122</v>
+        <v>1.574298287840097</v>
       </c>
       <c r="M32">
-        <v>2.163313163208787</v>
+        <v>9.588739426114625</v>
       </c>
       <c r="N32">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O32">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P32">
-        <v>16.68389789664556</v>
+        <v>73.95025013648301</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1970,49 +1970,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.2233956624339938</v>
+        <v>0.9901861794371611</v>
       </c>
       <c r="C33">
-        <v>6.48098266129574</v>
+        <v>28.72651774195949</v>
       </c>
       <c r="D33">
-        <v>0.00114005504187734</v>
+        <v>0.005053216942375235</v>
       </c>
       <c r="E33">
-        <v>0.4123594254295465</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="F33">
-        <v>0.4492393279938005</v>
+        <v>1.991222967323873</v>
       </c>
       <c r="G33">
-        <v>3.375851167455425</v>
+        <v>14.96323220169431</v>
       </c>
       <c r="H33">
-        <v>0.07287776475517294</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I33">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J33">
-        <v>0.5074760030463535</v>
+        <v>2.249353094583837</v>
       </c>
       <c r="K33">
-        <v>2.55583598785788</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="L33">
-        <v>0.3397345721903075</v>
+        <v>1.505850536194876</v>
       </c>
       <c r="M33">
-        <v>2.069256069156231</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="N33">
-        <v>0.008733556207950731</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O33">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P33">
-        <v>18.68888813500418</v>
+        <v>82.8372338956942</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,49 +2020,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.2719319862146168</v>
+        <v>1.205320155113437</v>
       </c>
       <c r="C34">
-        <v>7.889081052454955</v>
+        <v>34.96781871898955</v>
       </c>
       <c r="D34">
-        <v>0.001710082562816011</v>
+        <v>0.007579825413562854</v>
       </c>
       <c r="E34">
-        <v>0.6185391381443198</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="F34">
-        <v>0.2807745799961254</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G34">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H34">
-        <v>0.06680461769224183</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I34">
-        <v>1.882814840681722</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J34">
-        <v>0.442295598985354</v>
+        <v>1.960445357664812</v>
       </c>
       <c r="K34">
-        <v>2.227563475655951</v>
+        <v>9.873524594799347</v>
       </c>
       <c r="L34">
-        <v>0.2470796888656781</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M34">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="N34">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O34">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P34">
-        <v>17.59233541647085</v>
+        <v>77.97683806219514</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2070,49 +2070,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.2655033340582427</v>
+        <v>1.176825588798698</v>
       </c>
       <c r="C35">
-        <v>7.702577954288175</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="D35">
-        <v>0.0004987740808213363</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E35">
-        <v>0.1804072486254266</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F35">
-        <v>0.3032365463958154</v>
+        <v>1.344075502943614</v>
       </c>
       <c r="G35">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H35">
-        <v>0.07895091181810404</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I35">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J35">
-        <v>0.2327871573607126</v>
+        <v>1.031813346139375</v>
       </c>
       <c r="K35">
-        <v>1.172401829292606</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="L35">
-        <v>0.1544248055410488</v>
+        <v>0.6844775164522163</v>
       </c>
       <c r="M35">
-        <v>0.9405709405255599</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="N35">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O35">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P35">
-        <v>15.63304359316676</v>
+        <v>69.29240943998238</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2120,49 +2120,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.2340029384920106</v>
+        <v>1.03720221385648</v>
       </c>
       <c r="C36">
-        <v>6.788712773270935</v>
+        <v>30.09051067071441</v>
       </c>
       <c r="D36">
-        <v>0.0008550412814080053</v>
+        <v>0.003789912706781427</v>
       </c>
       <c r="E36">
-        <v>0.3092695690721599</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="F36">
-        <v>0.2133886807970554</v>
+        <v>0.9458309094788397</v>
       </c>
       <c r="G36">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H36">
-        <v>0.1062800736012939</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I36">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J36">
-        <v>0.1676067532997131</v>
+        <v>0.74290560922035</v>
       </c>
       <c r="K36">
-        <v>0.844129317090676</v>
+        <v>3.741546162239753</v>
       </c>
       <c r="L36">
-        <v>0.262522169419783</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M36">
-        <v>1.598970598893452</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N36">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O36">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P36">
-        <v>15.22249420773199</v>
+        <v>67.4726770288661</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2170,49 +2170,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.1838594516722941</v>
+        <v>0.8149445966015193</v>
       </c>
       <c r="C37">
-        <v>5.333988607570021</v>
+        <v>23.64254409841846</v>
       </c>
       <c r="D37">
-        <v>0.0004275206407040026</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E37">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F37">
-        <v>0.1684647479976752</v>
+        <v>0.7467086127464528</v>
       </c>
       <c r="G37">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H37">
-        <v>0.08502405888103508</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I37">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J37">
-        <v>0.1489837807108561</v>
+        <v>0.6603605415291999</v>
       </c>
       <c r="K37">
-        <v>0.7503371707472674</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="L37">
-        <v>0.1389823249869439</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M37">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N37">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O37">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P37">
-        <v>11.52239014995948</v>
+        <v>51.0722157998204</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2220,43 +2220,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.1443232409105945</v>
+        <v>0.6397030137658782</v>
       </c>
       <c r="C38">
-        <v>4.186994553844299</v>
+        <v>18.55857045487744</v>
       </c>
       <c r="D38">
-        <v>0.0006412809610560037</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E38">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F38">
-        <v>0.1572337647978302</v>
+        <v>0.6969280385633554</v>
       </c>
       <c r="G38">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H38">
-        <v>0.09717035300689729</v>
+        <v>0.4307010241386797</v>
       </c>
       <c r="I38">
-        <v>2.738639768264322</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="J38">
-        <v>0.09777060609149933</v>
+        <v>0.4333616053785375</v>
       </c>
       <c r="K38">
-        <v>0.4924087683028943</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="L38">
-        <v>0.09265488332462926</v>
+        <v>0.4106865098713298</v>
       </c>
       <c r="M38">
-        <v>0.5643425643153358</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="P38">
-        <v>9.985679869232877</v>
+        <v>44.26085131227546</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2264,49 +2264,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.09482261930651532</v>
+        <v>0.4202948531423921</v>
       </c>
       <c r="C39">
-        <v>2.750920697960063</v>
+        <v>12.19327012068785</v>
       </c>
       <c r="D39">
-        <v>0.000285013760469335</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E39">
-        <v>0.1030898563573866</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F39">
-        <v>0.06738589919907009</v>
+        <v>0.2986834450985809</v>
       </c>
       <c r="G39">
-        <v>0.5063776751183137</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H39">
-        <v>0.05465832356637971</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I39">
-        <v>1.540484869648681</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J39">
-        <v>0.06983614720821379</v>
+        <v>0.3095440038418125</v>
       </c>
       <c r="K39">
-        <v>0.3517205487877815</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L39">
-        <v>0.1080973638787342</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M39">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="N39">
-        <v>0.002911185402650244</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O39">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P39">
-        <v>6.354998543876036</v>
+        <v>28.16810165393703</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.04917918899626048</v>
+        <v>0.217983432307749</v>
       </c>
       <c r="C40">
-        <v>1.426748700975897</v>
+        <v>6.32396721513641</v>
       </c>
       <c r="D40">
-        <v>0.0007837878412906713</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E40">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F40">
-        <v>0.08984786559876011</v>
+        <v>0.3982445934647745</v>
       </c>
       <c r="G40">
-        <v>0.6751702334910848</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H40">
-        <v>0.02429258825172432</v>
+        <v>0.1076752560346699</v>
       </c>
       <c r="I40">
-        <v>0.6846599420660806</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="J40">
-        <v>0.08380337664985653</v>
+        <v>0.371452804610175</v>
       </c>
       <c r="K40">
-        <v>0.422064658545338</v>
+        <v>1.870773081119876</v>
       </c>
       <c r="L40">
-        <v>0.07721240277052442</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M40">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P40">
-        <v>4.28754532043241</v>
+        <v>19.00425493380852</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,37 +2358,37 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.03375042382096308</v>
+        <v>0.1495964731523768</v>
       </c>
       <c r="C41">
-        <v>0.9791412653756154</v>
+        <v>4.339977500583809</v>
       </c>
       <c r="D41">
-        <v>0.0003562672005866687</v>
+        <v>0.001579130294492261</v>
       </c>
       <c r="E41">
-        <v>0.1288623204467333</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="F41">
-        <v>0.02246196639969003</v>
+        <v>0.09956114836619363</v>
       </c>
       <c r="G41">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="J41">
-        <v>0.04190168832492826</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K41">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L41">
-        <v>0.07721240277052442</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M41">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P41">
-        <v>2.133796692247262</v>
+        <v>9.457909662933806</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2396,49 +2396,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.02732177166458916</v>
+        <v>0.1211019068376385</v>
       </c>
       <c r="C42">
-        <v>0.7926381672088315</v>
+        <v>3.513315119520227</v>
       </c>
       <c r="D42">
-        <v>0.0007125344011733374</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E42">
-        <v>0.2577246408934666</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F42">
-        <v>0.04492393279938005</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G42">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H42">
-        <v>0.00303657353146554</v>
+        <v>0.01345940700433374</v>
       </c>
       <c r="I42">
-        <v>0.08558249275826008</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="J42">
-        <v>0.05586891776657103</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K42">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L42">
-        <v>0.06176992221641953</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M42">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="N42">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O42">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P42">
-        <v>2.422608626659219</v>
+        <v>10.73804904789492</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2446,37 +2446,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.01510733256747871</v>
+        <v>0.06696223083963536</v>
       </c>
       <c r="C43">
-        <v>0.4382822806919422</v>
+        <v>1.942656595499419</v>
       </c>
       <c r="D43">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E43">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F43">
-        <v>0.04492393279938005</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G43">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="J43">
-        <v>0.06052466091378529</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K43">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L43">
-        <v>0.1080973638787342</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M43">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="P43">
-        <v>2.045275974169225</v>
+        <v>9.065547561182505</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2484,43 +2484,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.01478589995966001</v>
+        <v>0.06553750252389845</v>
       </c>
       <c r="C44">
-        <v>0.4289571257836032</v>
+        <v>1.90132347644624</v>
       </c>
       <c r="D44">
-        <v>0.0002137603203520013</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E44">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F44">
-        <v>0.03369294959953505</v>
+        <v>0.1493417225492904</v>
       </c>
       <c r="G44">
-        <v>0.2531888375591568</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="H44">
-        <v>0.01214629412586216</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I44">
-        <v>0.3423299710330403</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J44">
-        <v>0.03724594517771403</v>
+        <v>0.1650901353823</v>
       </c>
       <c r="K44">
-        <v>0.1875842926868168</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="L44">
-        <v>0.03088496110820976</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M44">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P44">
-        <v>1.606461617727102</v>
+        <v>7.120532575871477</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2528,43 +2528,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.03857191293824352</v>
+        <v>0.1709673978884308</v>
       </c>
       <c r="C45">
-        <v>1.119018589000703</v>
+        <v>4.959974286381497</v>
       </c>
       <c r="D45">
-        <v>7.125344011733375E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E45">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F45">
-        <v>0.04492393279938005</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G45">
-        <v>0.3375851167455424</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H45">
-        <v>0.006073147062931081</v>
+        <v>0.02691881400866748</v>
       </c>
       <c r="I45">
-        <v>0.1711649855165202</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="J45">
-        <v>0.06052466091378529</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K45">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L45">
-        <v>0.03088496110820976</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M45">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P45">
-        <v>2.327529687335969</v>
+        <v>10.31661807359727</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,43 +2572,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.1112156823052688</v>
+        <v>0.4929559972449754</v>
       </c>
       <c r="C46">
-        <v>3.22650359828536</v>
+        <v>14.30125919239998</v>
       </c>
       <c r="D46">
-        <v>0.00057002752093867</v>
+        <v>0.002526608471187618</v>
       </c>
       <c r="E46">
-        <v>0.2061797127147733</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="F46">
-        <v>0.1684647479976752</v>
+        <v>0.7467086127464528</v>
       </c>
       <c r="G46">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H46">
-        <v>0.02732916178318985</v>
+        <v>0.1211346630390037</v>
       </c>
       <c r="I46">
-        <v>0.7702424348243407</v>
+        <v>3.414047548951131</v>
       </c>
       <c r="J46">
-        <v>0.1955412121829987</v>
+        <v>0.866723210757075</v>
       </c>
       <c r="K46">
-        <v>0.9848175366057886</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="L46">
-        <v>0.2470796888656781</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M46">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="P46">
-        <v>8.708801495722692</v>
+        <v>38.60117419725734</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2616,49 +2616,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.1761450690846454</v>
+        <v>0.7807511170238336</v>
       </c>
       <c r="C47">
-        <v>5.110184889769878</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="D47">
-        <v>0.0009975481616426726</v>
+        <v>0.004421564824578333</v>
       </c>
       <c r="E47">
-        <v>0.3608144972508532</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="F47">
-        <v>0.1796957311975202</v>
+        <v>0.7964891869295491</v>
       </c>
       <c r="G47">
-        <v>1.35034046698217</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="H47">
-        <v>0.1062800736012939</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I47">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J47">
-        <v>0.3491807360410689</v>
+        <v>1.547720019209063</v>
       </c>
       <c r="K47">
-        <v>1.758602743938908</v>
+        <v>7.794887837999485</v>
       </c>
       <c r="L47">
-        <v>0.5096018582854608</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M47">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N47">
-        <v>0.01455592701325122</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O47">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P47">
-        <v>16.24571431816957</v>
+        <v>72.00803103188674</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2666,49 +2666,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.2320743428450985</v>
+        <v>1.028653843962058</v>
       </c>
       <c r="C48">
-        <v>6.732761843820898</v>
+        <v>29.84251195639533</v>
       </c>
       <c r="D48">
-        <v>0.0006412809610560037</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E48">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F48">
-        <v>0.2807745799961254</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G48">
-        <v>2.109906979659641</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H48">
-        <v>0.1153897941956905</v>
+        <v>0.5114574661646821</v>
       </c>
       <c r="I48">
-        <v>3.252134724813883</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="J48">
-        <v>0.3817709380715687</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K48">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L48">
-        <v>0.3088496110820977</v>
+        <v>1.368955032904433</v>
       </c>
       <c r="M48">
-        <v>1.88114188105112</v>
+        <v>8.338034283577935</v>
       </c>
       <c r="N48">
-        <v>0.005822370805300488</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O48">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P48">
-        <v>17.54797689477424</v>
+        <v>77.78022191197232</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2716,49 +2716,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.2346458037076481</v>
+        <v>1.040051670487953</v>
       </c>
       <c r="C49">
-        <v>6.807363083087615</v>
+        <v>30.17317690882076</v>
       </c>
       <c r="D49">
-        <v>0.0007125344011733374</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E49">
-        <v>0.2577246408934666</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F49">
-        <v>0.2246196639969003</v>
+        <v>0.9956114836619364</v>
       </c>
       <c r="G49">
-        <v>1.687925583727713</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="H49">
-        <v>0.07895091181810404</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I49">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J49">
-        <v>0.2886560751272837</v>
+        <v>1.279448549212825</v>
       </c>
       <c r="K49">
-        <v>1.45377826832283</v>
+        <v>6.443773946079574</v>
       </c>
       <c r="L49">
-        <v>0.4632744166231463</v>
+        <v>2.053432549356649</v>
       </c>
       <c r="M49">
-        <v>2.821712821576679</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="N49">
-        <v>0.01746711241590146</v>
+        <v>0.07742179557318483</v>
       </c>
       <c r="O49">
-        <v>0.2760521118833107</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="P49">
-        <v>16.83802783929653</v>
+        <v>74.63342069309813</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.9175250353345782</v>
+        <v>0.2038944522965728</v>
       </c>
       <c r="C2">
-        <v>26.61852867024736</v>
+        <v>5.915228593388302</v>
       </c>
       <c r="D2">
-        <v>0.006632347236867497</v>
+        <v>0.001473854941526111</v>
       </c>
       <c r="E2">
-        <v>2.398928819559726</v>
+        <v>0.5330952932354946</v>
       </c>
       <c r="F2">
-        <v>1.792100670591486</v>
+        <v>0.3982445934647745</v>
       </c>
       <c r="G2">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H2">
-        <v>0.3768633961213446</v>
+        <v>0.08374742136029883</v>
       </c>
       <c r="I2">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="J2">
-        <v>2.269989361506625</v>
+        <v>0.5044420803348055</v>
       </c>
       <c r="K2">
-        <v>11.43250216239924</v>
+        <v>2.54055603608872</v>
       </c>
       <c r="L2">
-        <v>2.737910065808865</v>
+        <v>0.6084244590686368</v>
       </c>
       <c r="M2">
-        <v>16.67606856715587</v>
+        <v>3.705793014923528</v>
       </c>
       <c r="N2">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O2">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P2">
-        <v>89.74910738399912</v>
+        <v>19.94424608533314</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,43 +530,43 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.054298953645323</v>
+        <v>0.2342886563656273</v>
       </c>
       <c r="C3">
-        <v>30.58650809935257</v>
+        <v>6.797001799856124</v>
       </c>
       <c r="D3">
-        <v>0.007895651472461306</v>
+        <v>0.001754589216102513</v>
       </c>
       <c r="E3">
-        <v>2.855867642333008</v>
+        <v>0.6346372538517796</v>
       </c>
       <c r="F3">
-        <v>1.194733780394323</v>
+        <v>0.2654963956431831</v>
       </c>
       <c r="G3">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="H3">
-        <v>0.2153505120693398</v>
+        <v>0.04785566934874219</v>
       </c>
       <c r="I3">
-        <v>6.069417864802011</v>
+        <v>1.348759525511558</v>
       </c>
       <c r="J3">
-        <v>2.847804835344676</v>
+        <v>0.6328455189654834</v>
       </c>
       <c r="K3">
-        <v>14.34259362191905</v>
+        <v>3.187243027093122</v>
       </c>
       <c r="L3">
-        <v>4.243760602003741</v>
+        <v>0.9430579115563864</v>
       </c>
       <c r="M3">
-        <v>25.8479062790916</v>
+        <v>5.743979173131467</v>
       </c>
       <c r="P3">
-        <v>98.24407716344467</v>
+        <v>21.83201714743215</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -574,49 +574,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.8591111743893649</v>
+        <v>0.1909135943087476</v>
       </c>
       <c r="C4">
-        <v>24.923870789067</v>
+        <v>5.538637953126002</v>
       </c>
       <c r="D4">
-        <v>0.00568486906017214</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E4">
-        <v>2.056224702479765</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F4">
-        <v>0.9458309094788397</v>
+        <v>0.2101846465508533</v>
       </c>
       <c r="G4">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="H4">
-        <v>0.363403989117011</v>
+        <v>0.08075644202600243</v>
       </c>
       <c r="I4">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="J4">
-        <v>2.22871682766105</v>
+        <v>0.4952704061469</v>
       </c>
       <c r="K4">
-        <v>11.22463848671926</v>
+        <v>2.494364108159835</v>
       </c>
       <c r="L4">
-        <v>2.806357817454086</v>
+        <v>0.6236350705453523</v>
       </c>
       <c r="M4">
-        <v>17.09297028133476</v>
+        <v>3.798437840296615</v>
       </c>
       <c r="N4">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O4">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P4">
-        <v>80.29015583252827</v>
+        <v>17.84225685167295</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -624,49 +624,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.9830625378584767</v>
+        <v>0.2184583417463282</v>
       </c>
       <c r="C5">
-        <v>28.5198521466936</v>
+        <v>6.337744921487467</v>
       </c>
       <c r="D5">
-        <v>0.007579825413562854</v>
+        <v>0.001684405647458412</v>
       </c>
       <c r="E5">
-        <v>2.741632936639687</v>
+        <v>0.6092517636977082</v>
       </c>
       <c r="F5">
-        <v>1.443636651309808</v>
+        <v>0.3208081447355129</v>
       </c>
       <c r="G5">
-        <v>10.84834334622838</v>
+        <v>2.410742965828528</v>
       </c>
       <c r="H5">
-        <v>0.2422693260780073</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I5">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J5">
-        <v>2.166808026892687</v>
+        <v>0.4815128948650416</v>
       </c>
       <c r="K5">
-        <v>10.91284297319928</v>
+        <v>2.425076216266507</v>
       </c>
       <c r="L5">
-        <v>1.984984797711428</v>
+        <v>0.4411077328247617</v>
       </c>
       <c r="M5">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="N5">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O5">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P5">
-        <v>79.63659346333267</v>
+        <v>17.69702076962949</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -674,49 +674,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.9346217751234212</v>
+        <v>0.2076937278052048</v>
       </c>
       <c r="C6">
-        <v>27.1145260988855</v>
+        <v>6.02545024419678</v>
       </c>
       <c r="D6">
-        <v>0.01042225994364892</v>
+        <v>0.002316057765255316</v>
       </c>
       <c r="E6">
-        <v>3.76974528787957</v>
+        <v>0.837721175084349</v>
       </c>
       <c r="F6">
-        <v>1.194733780394323</v>
+        <v>0.2654963956431831</v>
       </c>
       <c r="G6">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="H6">
-        <v>0.2288099190736735</v>
+        <v>0.05084664868303858</v>
       </c>
       <c r="I6">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="J6">
-        <v>2.1461717599699</v>
+        <v>0.4769270577710888</v>
       </c>
       <c r="K6">
-        <v>10.80891113535928</v>
+        <v>2.401980252302063</v>
       </c>
       <c r="L6">
-        <v>2.669462314163642</v>
+        <v>0.5932138475919206</v>
       </c>
       <c r="M6">
-        <v>16.25916685297697</v>
+        <v>3.613148189550438</v>
       </c>
       <c r="N6">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O6">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P6">
-        <v>80.78010100769303</v>
+        <v>17.95113355726512</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -724,49 +724,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.9161003070188408</v>
+        <v>0.2035778460041869</v>
       </c>
       <c r="C7">
-        <v>26.57719555119419</v>
+        <v>5.90604345582093</v>
       </c>
       <c r="D7">
-        <v>0.006000695119070593</v>
+        <v>0.00133348780423791</v>
       </c>
       <c r="E7">
-        <v>2.170459408173086</v>
+        <v>0.4823243129273524</v>
       </c>
       <c r="F7">
-        <v>0.9458309094788397</v>
+        <v>0.2101846465508533</v>
       </c>
       <c r="G7">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="H7">
-        <v>0.3095663610996759</v>
+        <v>0.06879252468881693</v>
       </c>
       <c r="I7">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="J7">
-        <v>2.414443229966138</v>
+        <v>0.536542939992475</v>
       </c>
       <c r="K7">
-        <v>12.16002502727919</v>
+        <v>2.702227783839822</v>
       </c>
       <c r="L7">
-        <v>2.46411905922798</v>
+        <v>0.5475820131617729</v>
       </c>
       <c r="M7">
-        <v>15.00846171044029</v>
+        <v>3.335213713431174</v>
       </c>
       <c r="N7">
-        <v>0.1161326933597773</v>
+        <v>0.02580726519106162</v>
       </c>
       <c r="O7">
-        <v>1.835373500629579</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P7">
-        <v>80.75603192944436</v>
+        <v>17.94578487320985</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -774,49 +774,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.8833315557568917</v>
+        <v>0.1962959012793093</v>
       </c>
       <c r="C8">
-        <v>25.62653381297106</v>
+        <v>5.694785291771346</v>
       </c>
       <c r="D8">
-        <v>0.009158955708055116</v>
+        <v>0.002035323490678915</v>
       </c>
       <c r="E8">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="F8">
-        <v>0.9956114836619364</v>
+        <v>0.2212469963693192</v>
       </c>
       <c r="G8">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="H8">
-        <v>0.2691881400866747</v>
+        <v>0.05981958668592775</v>
       </c>
       <c r="I8">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="J8">
-        <v>2.290625628429412</v>
+        <v>0.5090279174287583</v>
       </c>
       <c r="K8">
-        <v>11.53643400023923</v>
+        <v>2.563652000053164</v>
       </c>
       <c r="L8">
-        <v>2.053432549356649</v>
+        <v>0.4563183443014774</v>
       </c>
       <c r="M8">
-        <v>12.5070514253669</v>
+        <v>2.779344761192645</v>
       </c>
       <c r="N8">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O8">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P8">
-        <v>75.2030645131959</v>
+        <v>16.71179211404353</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -824,49 +824,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.9901861794371611</v>
+        <v>0.2200413732082579</v>
       </c>
       <c r="C9">
-        <v>28.72651774195949</v>
+        <v>6.383670609324331</v>
       </c>
       <c r="D9">
-        <v>0.005053216942375235</v>
+        <v>0.001122937098305608</v>
       </c>
       <c r="E9">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="F9">
-        <v>1.991222967323873</v>
+        <v>0.4424939927386384</v>
       </c>
       <c r="G9">
-        <v>14.96323220169431</v>
+        <v>3.325162711487626</v>
       </c>
       <c r="H9">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I9">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J9">
-        <v>2.249353094583837</v>
+        <v>0.4998562432408528</v>
       </c>
       <c r="K9">
-        <v>11.32857032455925</v>
+        <v>2.517460072124278</v>
       </c>
       <c r="L9">
-        <v>1.505850536194876</v>
+        <v>0.3346334524877502</v>
       </c>
       <c r="M9">
-        <v>9.171837711935732</v>
+        <v>2.03818615820794</v>
       </c>
       <c r="N9">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O9">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P9">
-        <v>82.8372338956942</v>
+        <v>18.40827419904315</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.205320155113437</v>
+        <v>0.2678489233585414</v>
       </c>
       <c r="C10">
-        <v>34.96781871898955</v>
+        <v>7.770626381997676</v>
       </c>
       <c r="D10">
-        <v>0.007579825413562854</v>
+        <v>0.001684405647458412</v>
       </c>
       <c r="E10">
-        <v>2.741632936639687</v>
+        <v>0.6092517636977082</v>
       </c>
       <c r="F10">
-        <v>1.24451435457742</v>
+        <v>0.276558745461649</v>
       </c>
       <c r="G10">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="H10">
-        <v>0.2961069540953423</v>
+        <v>0.0658015453545205</v>
       </c>
       <c r="I10">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="J10">
-        <v>1.960445357664812</v>
+        <v>0.4356545239255139</v>
       </c>
       <c r="K10">
-        <v>9.873524594799347</v>
+        <v>2.194116576622077</v>
       </c>
       <c r="L10">
-        <v>1.095164026323546</v>
+        <v>0.2433697836274546</v>
       </c>
       <c r="M10">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="N10">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O10">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P10">
-        <v>77.97683806219514</v>
+        <v>17.32818623604336</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.176825588798698</v>
+        <v>0.2615167975108216</v>
       </c>
       <c r="C11">
-        <v>34.14115633792596</v>
+        <v>7.586923630650213</v>
       </c>
       <c r="D11">
-        <v>0.002210782412289166</v>
+        <v>0.0004912849805087036</v>
       </c>
       <c r="E11">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="F11">
-        <v>1.344075502943614</v>
+        <v>0.2986834450985809</v>
       </c>
       <c r="G11">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H11">
-        <v>0.3499445821126772</v>
+        <v>0.07776546269170606</v>
       </c>
       <c r="I11">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="J11">
-        <v>1.031813346139375</v>
+        <v>0.2292918546976389</v>
       </c>
       <c r="K11">
-        <v>5.196591891999656</v>
+        <v>1.154798198222146</v>
       </c>
       <c r="L11">
-        <v>0.6844775164522163</v>
+        <v>0.1521061147671592</v>
       </c>
       <c r="M11">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="N11">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O11">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P11">
-        <v>69.29240943998238</v>
+        <v>15.39831320888497</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.03720221385648</v>
+        <v>0.2304893808569954</v>
       </c>
       <c r="C12">
-        <v>30.09051067071441</v>
+        <v>6.686780149047648</v>
       </c>
       <c r="D12">
-        <v>0.003789912706781427</v>
+        <v>0.0008422028237292062</v>
       </c>
       <c r="E12">
-        <v>1.370816468319844</v>
+        <v>0.3046258818488541</v>
       </c>
       <c r="F12">
-        <v>0.9458309094788397</v>
+        <v>0.2101846465508533</v>
       </c>
       <c r="G12">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="H12">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I12">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J12">
-        <v>0.74290560922035</v>
+        <v>0.1650901353823</v>
       </c>
       <c r="K12">
-        <v>3.741546162239753</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="L12">
-        <v>1.163611777968768</v>
+        <v>0.2585803951041707</v>
       </c>
       <c r="M12">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="N12">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O12">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P12">
-        <v>67.4726770288661</v>
+        <v>14.99392822863691</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.8149445966015193</v>
+        <v>0.1810987992447822</v>
       </c>
       <c r="C13">
-        <v>23.64254409841846</v>
+        <v>5.25389868853744</v>
       </c>
       <c r="D13">
-        <v>0.001894956353390714</v>
+        <v>0.0004211014118646031</v>
       </c>
       <c r="E13">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="F13">
-        <v>0.7467086127464528</v>
+        <v>0.1659352472769894</v>
       </c>
       <c r="G13">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="H13">
-        <v>0.3768633961213446</v>
+        <v>0.08374742136029883</v>
       </c>
       <c r="I13">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="J13">
-        <v>0.6603605415291999</v>
+        <v>0.1467467870064889</v>
       </c>
       <c r="K13">
-        <v>3.32581881087978</v>
+        <v>0.7390708468621734</v>
       </c>
       <c r="L13">
-        <v>0.616029764806995</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M13">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="N13">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O13">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P13">
-        <v>51.0722157998204</v>
+        <v>11.34938128884898</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.6397030137658782</v>
+        <v>0.1421562252813062</v>
       </c>
       <c r="C14">
-        <v>18.55857045487744</v>
+        <v>4.124126767750541</v>
       </c>
       <c r="D14">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E14">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F14">
-        <v>0.6969280385633554</v>
+        <v>0.1548728974585235</v>
       </c>
       <c r="G14">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="H14">
-        <v>0.4307010241386797</v>
+        <v>0.09571133869748438</v>
       </c>
       <c r="I14">
-        <v>12.13883572960402</v>
+        <v>2.697519051023117</v>
       </c>
       <c r="J14">
-        <v>0.4333616053785375</v>
+        <v>0.09630257897300834</v>
       </c>
       <c r="K14">
-        <v>2.182568594639855</v>
+        <v>0.4850152432533013</v>
       </c>
       <c r="L14">
-        <v>0.4106865098713298</v>
+        <v>0.09126366886029552</v>
       </c>
       <c r="M14">
-        <v>2.50141028507338</v>
+        <v>0.5558689522385291</v>
       </c>
       <c r="P14">
-        <v>44.26085131227546</v>
+        <v>9.83574473606121</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,49 +1118,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.4202948531423921</v>
+        <v>0.09339885625386496</v>
       </c>
       <c r="C15">
-        <v>12.19327012068785</v>
+        <v>2.709615582375077</v>
       </c>
       <c r="D15">
-        <v>0.001263304235593809</v>
+        <v>0.000280734274576402</v>
       </c>
       <c r="E15">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="F15">
-        <v>0.2986834450985809</v>
+        <v>0.06637409891079578</v>
       </c>
       <c r="G15">
-        <v>2.244484830254147</v>
+        <v>0.4987744067231438</v>
       </c>
       <c r="H15">
-        <v>0.2422693260780073</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I15">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J15">
-        <v>0.3095440038418125</v>
+        <v>0.06878755640929164</v>
       </c>
       <c r="K15">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666437</v>
       </c>
       <c r="L15">
-        <v>0.4791342615165513</v>
+        <v>0.1064742803370114</v>
       </c>
       <c r="M15">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="N15">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O15">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P15">
-        <v>28.16810165393703</v>
+        <v>6.259578145319338</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,43 +1168,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.217983432307749</v>
+        <v>0.04844076273505538</v>
       </c>
       <c r="C16">
-        <v>6.32396721513641</v>
+        <v>1.405326047808091</v>
       </c>
       <c r="D16">
-        <v>0.003474086647882975</v>
+        <v>0.0007720192550851056</v>
       </c>
       <c r="E16">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="F16">
-        <v>0.3982445934647745</v>
+        <v>0.08849879854772767</v>
       </c>
       <c r="G16">
-        <v>2.992646440338863</v>
+        <v>0.6650325422975251</v>
       </c>
       <c r="H16">
-        <v>0.1076752560346699</v>
+        <v>0.0239278346743711</v>
       </c>
       <c r="I16">
-        <v>3.034708932401005</v>
+        <v>0.6743797627557792</v>
       </c>
       <c r="J16">
-        <v>0.371452804610175</v>
+        <v>0.08254506769115</v>
       </c>
       <c r="K16">
-        <v>1.870773081119876</v>
+        <v>0.4157273513599725</v>
       </c>
       <c r="L16">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M16">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P16">
-        <v>19.00425493380852</v>
+        <v>4.22316776306856</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1212,37 +1212,37 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1495964731523768</v>
+        <v>0.0332436607005282</v>
       </c>
       <c r="C17">
-        <v>4.339977500583809</v>
+        <v>0.96443944457418</v>
       </c>
       <c r="D17">
-        <v>0.001579130294492261</v>
+        <v>0.0003509178432205025</v>
       </c>
       <c r="E17">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="F17">
-        <v>0.09956114836619363</v>
+        <v>0.02212469963693192</v>
       </c>
       <c r="G17">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="J17">
-        <v>0.1857264023050875</v>
+        <v>0.041272533845575</v>
       </c>
       <c r="K17">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="L17">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M17">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P17">
-        <v>9.457909662933806</v>
+        <v>2.10175770287418</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,49 +1250,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1211019068376385</v>
+        <v>0.02691153485280854</v>
       </c>
       <c r="C18">
-        <v>3.513315119520227</v>
+        <v>0.7807366932267171</v>
       </c>
       <c r="D18">
-        <v>0.003158260588984523</v>
+        <v>0.000701835686441005</v>
       </c>
       <c r="E18">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="F18">
-        <v>0.1991222967323873</v>
+        <v>0.04424939927386384</v>
       </c>
       <c r="G18">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="H18">
-        <v>0.01345940700433374</v>
+        <v>0.002990979334296387</v>
       </c>
       <c r="I18">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="J18">
-        <v>0.24763520307345</v>
+        <v>0.05503004512743333</v>
       </c>
       <c r="K18">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="L18">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M18">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="N18">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O18">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P18">
-        <v>10.73804904789492</v>
+        <v>2.386233121754426</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,37 +1300,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.06696223083963536</v>
+        <v>0.01488049574214119</v>
       </c>
       <c r="C19">
-        <v>1.942656595499419</v>
+        <v>0.4317014656665377</v>
       </c>
       <c r="D19">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E19">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F19">
-        <v>0.1991222967323873</v>
+        <v>0.04424939927386384</v>
       </c>
       <c r="G19">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="J19">
-        <v>0.2682714699962375</v>
+        <v>0.05961588222138611</v>
       </c>
       <c r="K19">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="L19">
-        <v>0.4791342615165513</v>
+        <v>0.1064742803370114</v>
       </c>
       <c r="M19">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="P19">
-        <v>9.065547561182505</v>
+        <v>2.014566124707224</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1338,43 +1338,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.06553750252389845</v>
+        <v>0.01456388944975521</v>
       </c>
       <c r="C20">
-        <v>1.90132347644624</v>
+        <v>0.4225163280991644</v>
       </c>
       <c r="D20">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E20">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F20">
-        <v>0.1493417225492904</v>
+        <v>0.03318704945539789</v>
       </c>
       <c r="G20">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="H20">
-        <v>0.05383762801733496</v>
+        <v>0.01196391733718555</v>
       </c>
       <c r="I20">
-        <v>1.517354466200503</v>
+        <v>0.3371898813778896</v>
       </c>
       <c r="J20">
-        <v>0.1650901353823</v>
+        <v>0.03668669675162222</v>
       </c>
       <c r="K20">
-        <v>0.8314547027199449</v>
+        <v>0.1847677117155433</v>
       </c>
       <c r="L20">
-        <v>0.1368955032904432</v>
+        <v>0.03042122295343182</v>
       </c>
       <c r="M20">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="P20">
-        <v>7.120532575871477</v>
+        <v>1.582340572415884</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,43 +1382,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1709673978884308</v>
+        <v>0.03799275508631794</v>
       </c>
       <c r="C21">
-        <v>4.959974286381497</v>
+        <v>1.102216508084777</v>
       </c>
       <c r="D21">
-        <v>0.0003158260588984522</v>
+        <v>7.01835686441005E-05</v>
       </c>
       <c r="E21">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="F21">
-        <v>0.1991222967323873</v>
+        <v>0.04424939927386384</v>
       </c>
       <c r="G21">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="H21">
-        <v>0.02691881400866748</v>
+        <v>0.005981958668592774</v>
       </c>
       <c r="I21">
-        <v>0.7586772331002514</v>
+        <v>0.1685949406889448</v>
       </c>
       <c r="J21">
-        <v>0.2682714699962375</v>
+        <v>0.05961588222138611</v>
       </c>
       <c r="K21">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="L21">
-        <v>0.1368955032904432</v>
+        <v>0.03042122295343182</v>
       </c>
       <c r="M21">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="P21">
-        <v>10.31661807359727</v>
+        <v>2.292581794132726</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1426,43 +1426,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.4929559972449754</v>
+        <v>0.10954577716555</v>
       </c>
       <c r="C22">
-        <v>14.30125919239998</v>
+        <v>3.178057598311108</v>
       </c>
       <c r="D22">
-        <v>0.002526608471187618</v>
+        <v>0.000561468549152804</v>
       </c>
       <c r="E22">
-        <v>0.9138776455465625</v>
+        <v>0.2030839212325694</v>
       </c>
       <c r="F22">
-        <v>0.7467086127464528</v>
+        <v>0.1659352472769894</v>
       </c>
       <c r="G22">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="H22">
-        <v>0.1211346630390037</v>
+        <v>0.02691881400866748</v>
       </c>
       <c r="I22">
-        <v>3.414047548951131</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="J22">
-        <v>0.866723210757075</v>
+        <v>0.1926051579460167</v>
       </c>
       <c r="K22">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="L22">
-        <v>1.095164026323546</v>
+        <v>0.2433697836274546</v>
       </c>
       <c r="M22">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="P22">
-        <v>38.60117419725734</v>
+        <v>8.578038710501632</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.7807511170238336</v>
+        <v>0.1735002482275185</v>
       </c>
       <c r="C23">
-        <v>22.65054924114217</v>
+        <v>5.033455386920482</v>
       </c>
       <c r="D23">
-        <v>0.004421564824578333</v>
+        <v>0.0009825699610174071</v>
       </c>
       <c r="E23">
-        <v>1.599285879706484</v>
+        <v>0.3553968621569965</v>
       </c>
       <c r="F23">
-        <v>0.7964891869295491</v>
+        <v>0.1769975970954553</v>
       </c>
       <c r="G23">
-        <v>5.985292880677726</v>
+        <v>1.33006508459505</v>
       </c>
       <c r="H23">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I23">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J23">
-        <v>1.547720019209063</v>
+        <v>0.3439377820464584</v>
       </c>
       <c r="K23">
-        <v>7.794887837999485</v>
+        <v>1.732197297333219</v>
       </c>
       <c r="L23">
-        <v>2.258775804292313</v>
+        <v>0.5019501787316252</v>
       </c>
       <c r="M23">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="N23">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O23">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P23">
-        <v>72.00803103188674</v>
+        <v>16.00178467375261</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.028653843962058</v>
+        <v>0.2285897431026797</v>
       </c>
       <c r="C24">
-        <v>29.84251195639533</v>
+        <v>6.631669323643413</v>
       </c>
       <c r="D24">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E24">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F24">
-        <v>1.24451435457742</v>
+        <v>0.276558745461649</v>
       </c>
       <c r="G24">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="H24">
-        <v>0.5114574661646821</v>
+        <v>0.1136572147032627</v>
       </c>
       <c r="I24">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="J24">
-        <v>1.692173887668575</v>
+        <v>0.3760386417041278</v>
       </c>
       <c r="K24">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="L24">
-        <v>1.368955032904433</v>
+        <v>0.3042122295343184</v>
       </c>
       <c r="M24">
-        <v>8.338034283577935</v>
+        <v>1.852896507461764</v>
       </c>
       <c r="N24">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O24">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P24">
-        <v>77.78022191197232</v>
+        <v>17.28449375821607</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.040051670487953</v>
+        <v>0.2311225934417675</v>
       </c>
       <c r="C25">
-        <v>30.17317690882076</v>
+        <v>6.705150424182393</v>
       </c>
       <c r="D25">
-        <v>0.003158260588984523</v>
+        <v>0.000701835686441005</v>
       </c>
       <c r="E25">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="F25">
-        <v>0.9956114836619364</v>
+        <v>0.2212469963693192</v>
       </c>
       <c r="G25">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="H25">
-        <v>0.3499445821126772</v>
+        <v>0.07776546269170606</v>
       </c>
       <c r="I25">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="J25">
-        <v>1.279448549212825</v>
+        <v>0.2843218998250724</v>
       </c>
       <c r="K25">
-        <v>6.443773946079574</v>
+        <v>1.431949765795461</v>
       </c>
       <c r="L25">
-        <v>2.053432549356649</v>
+        <v>0.4563183443014774</v>
       </c>
       <c r="M25">
-        <v>12.5070514253669</v>
+        <v>2.779344761192645</v>
       </c>
       <c r="N25">
-        <v>0.07742179557318483</v>
+        <v>0.01720484346070775</v>
       </c>
       <c r="O25">
-        <v>1.223582333753053</v>
+        <v>0.2719071852784563</v>
       </c>
       <c r="P25">
-        <v>74.63342069309813</v>
+        <v>16.58520459846625</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.9175250353345782</v>
+        <v>0.2038944522965728</v>
       </c>
       <c r="C26">
-        <v>26.61852867024736</v>
+        <v>5.915228593388302</v>
       </c>
       <c r="D26">
-        <v>0.006632347236867497</v>
+        <v>0.001473854941526111</v>
       </c>
       <c r="E26">
-        <v>2.398928819559726</v>
+        <v>0.5330952932354946</v>
       </c>
       <c r="F26">
-        <v>1.792100670591486</v>
+        <v>0.3982445934647745</v>
       </c>
       <c r="G26">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H26">
-        <v>0.3768633961213446</v>
+        <v>0.08374742136029883</v>
       </c>
       <c r="I26">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="J26">
-        <v>2.269989361506625</v>
+        <v>0.5044420803348055</v>
       </c>
       <c r="K26">
-        <v>11.43250216239924</v>
+        <v>2.54055603608872</v>
       </c>
       <c r="L26">
-        <v>2.737910065808865</v>
+        <v>0.6084244590686368</v>
       </c>
       <c r="M26">
-        <v>16.67606856715587</v>
+        <v>3.705793014923528</v>
       </c>
       <c r="N26">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O26">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P26">
-        <v>89.74910738399912</v>
+        <v>19.94424608533314</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.7921489435497293</v>
+        <v>0.1760330985666066</v>
       </c>
       <c r="C27">
-        <v>22.98121419356761</v>
+        <v>5.106936487459468</v>
       </c>
       <c r="D27">
-        <v>0.006632347236867497</v>
+        <v>0.001473854941526111</v>
       </c>
       <c r="E27">
-        <v>2.398928819559726</v>
+        <v>0.5330952932354946</v>
       </c>
       <c r="F27">
-        <v>1.294294928760518</v>
+        <v>0.2876210952801151</v>
       </c>
       <c r="G27">
-        <v>9.726100931101303</v>
+        <v>2.161355762466957</v>
       </c>
       <c r="H27">
-        <v>0.2288099190736735</v>
+        <v>0.05084664868303858</v>
       </c>
       <c r="I27">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="J27">
-        <v>2.662078433039587</v>
+        <v>0.5915729851199082</v>
       </c>
       <c r="K27">
-        <v>13.40720708135911</v>
+        <v>2.979379351413137</v>
       </c>
       <c r="L27">
-        <v>1.916537046066205</v>
+        <v>0.4258971213480456</v>
       </c>
       <c r="M27">
-        <v>11.67324799700911</v>
+        <v>2.594055110446469</v>
       </c>
       <c r="N27">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O27">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P27">
-        <v>73.75279114322994</v>
+        <v>16.38950914293999</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.8990035672299979</v>
+        <v>0.1997785704955551</v>
       </c>
       <c r="C28">
-        <v>26.08119812255603</v>
+        <v>5.795821805012452</v>
       </c>
       <c r="D28">
-        <v>0.009158955708055116</v>
+        <v>0.002035323490678915</v>
       </c>
       <c r="E28">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="F28">
-        <v>1.294294928760518</v>
+        <v>0.2876210952801151</v>
       </c>
       <c r="G28">
-        <v>9.726100931101303</v>
+        <v>2.161355762466957</v>
       </c>
       <c r="H28">
-        <v>0.3095663610996759</v>
+        <v>0.06879252468881693</v>
       </c>
       <c r="I28">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="J28">
-        <v>2.063626692278749</v>
+        <v>0.4585837093952777</v>
       </c>
       <c r="K28">
-        <v>10.39318378399931</v>
+        <v>2.309596396444292</v>
       </c>
       <c r="L28">
-        <v>2.737910065808865</v>
+        <v>0.6084244590686368</v>
       </c>
       <c r="M28">
-        <v>16.67606856715587</v>
+        <v>3.705793014923528</v>
       </c>
       <c r="N28">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O28">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P28">
-        <v>82.6613746645663</v>
+        <v>18.36919436990362</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.8192187815487303</v>
+        <v>0.1820486181219401</v>
       </c>
       <c r="C29">
-        <v>23.766543455578</v>
+        <v>5.281454101239555</v>
       </c>
       <c r="D29">
-        <v>0.007895651472461306</v>
+        <v>0.001754589216102513</v>
       </c>
       <c r="E29">
-        <v>2.855867642333008</v>
+        <v>0.6346372538517796</v>
       </c>
       <c r="F29">
-        <v>1.393856077126711</v>
+        <v>0.3097457949170469</v>
       </c>
       <c r="G29">
-        <v>10.47426254118602</v>
+        <v>2.327613898041337</v>
       </c>
       <c r="H29">
-        <v>0.2288099190736735</v>
+        <v>0.05084664868303858</v>
       </c>
       <c r="I29">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="J29">
-        <v>1.692173887668575</v>
+        <v>0.3760386417041278</v>
       </c>
       <c r="K29">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="L29">
-        <v>1.163611777968768</v>
+        <v>0.2585803951041707</v>
       </c>
       <c r="M29">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="N29">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O29">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P29">
-        <v>65.11123812389188</v>
+        <v>14.46916402753153</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.827767151443152</v>
+        <v>0.1839482558762561</v>
       </c>
       <c r="C30">
-        <v>24.01454216989708</v>
+        <v>5.336564926643793</v>
       </c>
       <c r="D30">
-        <v>0.004737390883476786</v>
+        <v>0.001052753529661508</v>
       </c>
       <c r="E30">
-        <v>1.713520585399804</v>
+        <v>0.3807823523110677</v>
       </c>
       <c r="F30">
-        <v>1.24451435457742</v>
+        <v>0.276558745461649</v>
       </c>
       <c r="G30">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="H30">
-        <v>0.2018911050650061</v>
+        <v>0.04486469001444579</v>
       </c>
       <c r="I30">
-        <v>5.690079248251886</v>
+        <v>1.264462055167085</v>
       </c>
       <c r="J30">
-        <v>2.063626692278749</v>
+        <v>0.4585837093952777</v>
       </c>
       <c r="K30">
-        <v>10.39318378399931</v>
+        <v>2.309596396444292</v>
       </c>
       <c r="L30">
-        <v>2.258775804292313</v>
+        <v>0.5019501787316252</v>
       </c>
       <c r="M30">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="N30">
-        <v>0.05161453038212322</v>
+        <v>0.01146989564047183</v>
       </c>
       <c r="O30">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="P30">
-        <v>72.38975106626823</v>
+        <v>16.0866113480596</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.8306166080746257</v>
+        <v>0.1845814684610279</v>
       </c>
       <c r="C31">
-        <v>24.09720840800344</v>
+        <v>5.354935201778544</v>
       </c>
       <c r="D31">
-        <v>0.006316521177969045</v>
+        <v>0.00140367137288201</v>
       </c>
       <c r="E31">
-        <v>2.284694113866406</v>
+        <v>0.5077098030814237</v>
       </c>
       <c r="F31">
-        <v>1.592978373859098</v>
+        <v>0.3539951941909107</v>
       </c>
       <c r="G31">
-        <v>11.97058576135545</v>
+        <v>2.6601301691901</v>
       </c>
       <c r="H31">
-        <v>0.2153505120693398</v>
+        <v>0.04785566934874219</v>
       </c>
       <c r="I31">
-        <v>6.069417864802011</v>
+        <v>1.348759525511558</v>
       </c>
       <c r="J31">
-        <v>2.414443229966138</v>
+        <v>0.536542939992475</v>
       </c>
       <c r="K31">
-        <v>12.16002502727919</v>
+        <v>2.702227783839822</v>
       </c>
       <c r="L31">
-        <v>1.437402784549655</v>
+        <v>0.3194228410110341</v>
       </c>
       <c r="M31">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="N31">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O31">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P31">
-        <v>72.26764324586891</v>
+        <v>16.05947627685976</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,49 +1920,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.8690842725995225</v>
+        <v>0.1931298383554496</v>
       </c>
       <c r="C32">
-        <v>25.21320262243926</v>
+        <v>5.602933916097614</v>
       </c>
       <c r="D32">
-        <v>0.007263999354664404</v>
+        <v>0.001614222078814312</v>
       </c>
       <c r="E32">
-        <v>2.627398230946367</v>
+        <v>0.5838662735436371</v>
       </c>
       <c r="F32">
-        <v>1.24451435457742</v>
+        <v>0.276558745461649</v>
       </c>
       <c r="G32">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="H32">
-        <v>0.2826475470910085</v>
+        <v>0.06281056602022411</v>
       </c>
       <c r="I32">
-        <v>7.96611094755264</v>
+        <v>1.77024687723392</v>
       </c>
       <c r="J32">
-        <v>2.414443229966138</v>
+        <v>0.536542939992475</v>
       </c>
       <c r="K32">
-        <v>12.16002502727919</v>
+        <v>2.702227783839822</v>
       </c>
       <c r="L32">
-        <v>1.574298287840097</v>
+        <v>0.3498440639644661</v>
       </c>
       <c r="M32">
-        <v>9.588739426114625</v>
+        <v>2.130830983581028</v>
       </c>
       <c r="N32">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O32">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P32">
-        <v>73.95025013648301</v>
+        <v>16.43338891921845</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1970,49 +1970,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.9901861794371611</v>
+        <v>0.2200413732082579</v>
       </c>
       <c r="C33">
-        <v>28.72651774195949</v>
+        <v>6.383670609324331</v>
       </c>
       <c r="D33">
-        <v>0.005053216942375235</v>
+        <v>0.001122937098305608</v>
       </c>
       <c r="E33">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="F33">
-        <v>1.991222967323873</v>
+        <v>0.4424939927386384</v>
       </c>
       <c r="G33">
-        <v>14.96323220169431</v>
+        <v>3.325162711487626</v>
       </c>
       <c r="H33">
-        <v>0.3230257681040097</v>
+        <v>0.07178350402311326</v>
       </c>
       <c r="I33">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="J33">
-        <v>2.249353094583837</v>
+        <v>0.4998562432408528</v>
       </c>
       <c r="K33">
-        <v>11.32857032455925</v>
+        <v>2.517460072124278</v>
       </c>
       <c r="L33">
-        <v>1.505850536194876</v>
+        <v>0.3346334524877502</v>
       </c>
       <c r="M33">
-        <v>9.171837711935732</v>
+        <v>2.03818615820794</v>
       </c>
       <c r="N33">
-        <v>0.03871089778659242</v>
+        <v>0.008602421730353875</v>
       </c>
       <c r="O33">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="P33">
-        <v>82.8372338956942</v>
+        <v>18.40827419904315</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,49 +2020,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.205320155113437</v>
+        <v>0.2678489233585414</v>
       </c>
       <c r="C34">
-        <v>34.96781871898955</v>
+        <v>7.770626381997676</v>
       </c>
       <c r="D34">
-        <v>0.007579825413562854</v>
+        <v>0.001684405647458412</v>
       </c>
       <c r="E34">
-        <v>2.741632936639687</v>
+        <v>0.6092517636977082</v>
       </c>
       <c r="F34">
-        <v>1.24451435457742</v>
+        <v>0.276558745461649</v>
       </c>
       <c r="G34">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="H34">
-        <v>0.2961069540953423</v>
+        <v>0.0658015453545205</v>
       </c>
       <c r="I34">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="J34">
-        <v>1.960445357664812</v>
+        <v>0.4356545239255139</v>
       </c>
       <c r="K34">
-        <v>9.873524594799347</v>
+        <v>2.194116576622077</v>
       </c>
       <c r="L34">
-        <v>1.095164026323546</v>
+        <v>0.2433697836274546</v>
       </c>
       <c r="M34">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="N34">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O34">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P34">
-        <v>77.97683806219514</v>
+        <v>17.32818623604336</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2070,49 +2070,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.176825588798698</v>
+        <v>0.2615167975108216</v>
       </c>
       <c r="C35">
-        <v>34.14115633792596</v>
+        <v>7.586923630650213</v>
       </c>
       <c r="D35">
-        <v>0.002210782412289166</v>
+        <v>0.0004912849805087036</v>
       </c>
       <c r="E35">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="F35">
-        <v>1.344075502943614</v>
+        <v>0.2986834450985809</v>
       </c>
       <c r="G35">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H35">
-        <v>0.3499445821126772</v>
+        <v>0.07776546269170606</v>
       </c>
       <c r="I35">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="J35">
-        <v>1.031813346139375</v>
+        <v>0.2292918546976389</v>
       </c>
       <c r="K35">
-        <v>5.196591891999656</v>
+        <v>1.154798198222146</v>
       </c>
       <c r="L35">
-        <v>0.6844775164522163</v>
+        <v>0.1521061147671592</v>
       </c>
       <c r="M35">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="N35">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O35">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P35">
-        <v>69.29240943998238</v>
+        <v>15.39831320888497</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2120,49 +2120,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.03720221385648</v>
+        <v>0.2304893808569954</v>
       </c>
       <c r="C36">
-        <v>30.09051067071441</v>
+        <v>6.686780149047648</v>
       </c>
       <c r="D36">
-        <v>0.003789912706781427</v>
+        <v>0.0008422028237292062</v>
       </c>
       <c r="E36">
-        <v>1.370816468319844</v>
+        <v>0.3046258818488541</v>
       </c>
       <c r="F36">
-        <v>0.9458309094788397</v>
+        <v>0.2101846465508533</v>
       </c>
       <c r="G36">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="H36">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I36">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J36">
-        <v>0.74290560922035</v>
+        <v>0.1650901353823</v>
       </c>
       <c r="K36">
-        <v>3.741546162239753</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="L36">
-        <v>1.163611777968768</v>
+        <v>0.2585803951041707</v>
       </c>
       <c r="M36">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="N36">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O36">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P36">
-        <v>67.4726770288661</v>
+        <v>14.99392822863691</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2170,49 +2170,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.8149445966015193</v>
+        <v>0.1810987992447822</v>
       </c>
       <c r="C37">
-        <v>23.64254409841846</v>
+        <v>5.25389868853744</v>
       </c>
       <c r="D37">
-        <v>0.001894956353390714</v>
+        <v>0.0004211014118646031</v>
       </c>
       <c r="E37">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="F37">
-        <v>0.7467086127464528</v>
+        <v>0.1659352472769894</v>
       </c>
       <c r="G37">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="H37">
-        <v>0.3768633961213446</v>
+        <v>0.08374742136029883</v>
       </c>
       <c r="I37">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="J37">
-        <v>0.6603605415291999</v>
+        <v>0.1467467870064889</v>
       </c>
       <c r="K37">
-        <v>3.32581881087978</v>
+        <v>0.7390708468621734</v>
       </c>
       <c r="L37">
-        <v>0.616029764806995</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M37">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="N37">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O37">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P37">
-        <v>51.0722157998204</v>
+        <v>11.34938128884898</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2220,43 +2220,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.6397030137658782</v>
+        <v>0.1421562252813062</v>
       </c>
       <c r="C38">
-        <v>18.55857045487744</v>
+        <v>4.124126767750541</v>
       </c>
       <c r="D38">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E38">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F38">
-        <v>0.6969280385633554</v>
+        <v>0.1548728974585235</v>
       </c>
       <c r="G38">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="H38">
-        <v>0.4307010241386797</v>
+        <v>0.09571133869748438</v>
       </c>
       <c r="I38">
-        <v>12.13883572960402</v>
+        <v>2.697519051023117</v>
       </c>
       <c r="J38">
-        <v>0.4333616053785375</v>
+        <v>0.09630257897300834</v>
       </c>
       <c r="K38">
-        <v>2.182568594639855</v>
+        <v>0.4850152432533013</v>
       </c>
       <c r="L38">
-        <v>0.4106865098713298</v>
+        <v>0.09126366886029552</v>
       </c>
       <c r="M38">
-        <v>2.50141028507338</v>
+        <v>0.5558689522385291</v>
       </c>
       <c r="P38">
-        <v>44.26085131227546</v>
+        <v>9.83574473606121</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2264,49 +2264,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.4202948531423921</v>
+        <v>0.09339885625386496</v>
       </c>
       <c r="C39">
-        <v>12.19327012068785</v>
+        <v>2.709615582375077</v>
       </c>
       <c r="D39">
-        <v>0.001263304235593809</v>
+        <v>0.000280734274576402</v>
       </c>
       <c r="E39">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="F39">
-        <v>0.2986834450985809</v>
+        <v>0.06637409891079578</v>
       </c>
       <c r="G39">
-        <v>2.244484830254147</v>
+        <v>0.4987744067231438</v>
       </c>
       <c r="H39">
-        <v>0.2422693260780073</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I39">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J39">
-        <v>0.3095440038418125</v>
+        <v>0.06878755640929164</v>
       </c>
       <c r="K39">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666437</v>
       </c>
       <c r="L39">
-        <v>0.4791342615165513</v>
+        <v>0.1064742803370114</v>
       </c>
       <c r="M39">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="N39">
-        <v>0.01290363259553081</v>
+        <v>0.002867473910117957</v>
       </c>
       <c r="O39">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="P39">
-        <v>28.16810165393703</v>
+        <v>6.259578145319338</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.217983432307749</v>
+        <v>0.04844076273505538</v>
       </c>
       <c r="C40">
-        <v>6.32396721513641</v>
+        <v>1.405326047808091</v>
       </c>
       <c r="D40">
-        <v>0.003474086647882975</v>
+        <v>0.0007720192550851056</v>
       </c>
       <c r="E40">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="F40">
-        <v>0.3982445934647745</v>
+        <v>0.08849879854772767</v>
       </c>
       <c r="G40">
-        <v>2.992646440338863</v>
+        <v>0.6650325422975251</v>
       </c>
       <c r="H40">
-        <v>0.1076752560346699</v>
+        <v>0.0239278346743711</v>
       </c>
       <c r="I40">
-        <v>3.034708932401005</v>
+        <v>0.6743797627557792</v>
       </c>
       <c r="J40">
-        <v>0.371452804610175</v>
+        <v>0.08254506769115</v>
       </c>
       <c r="K40">
-        <v>1.870773081119876</v>
+        <v>0.4157273513599725</v>
       </c>
       <c r="L40">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M40">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P40">
-        <v>19.00425493380852</v>
+        <v>4.22316776306856</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,37 +2358,37 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1495964731523768</v>
+        <v>0.0332436607005282</v>
       </c>
       <c r="C41">
-        <v>4.339977500583809</v>
+        <v>0.96443944457418</v>
       </c>
       <c r="D41">
-        <v>0.001579130294492261</v>
+        <v>0.0003509178432205025</v>
       </c>
       <c r="E41">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="F41">
-        <v>0.09956114836619363</v>
+        <v>0.02212469963693192</v>
       </c>
       <c r="G41">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="J41">
-        <v>0.1857264023050875</v>
+        <v>0.041272533845575</v>
       </c>
       <c r="K41">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="L41">
-        <v>0.3422387582261082</v>
+        <v>0.07605305738357961</v>
       </c>
       <c r="M41">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="P41">
-        <v>9.457909662933806</v>
+        <v>2.10175770287418</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2396,49 +2396,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1211019068376385</v>
+        <v>0.02691153485280854</v>
       </c>
       <c r="C42">
-        <v>3.513315119520227</v>
+        <v>0.7807366932267171</v>
       </c>
       <c r="D42">
-        <v>0.003158260588984523</v>
+        <v>0.000701835686441005</v>
       </c>
       <c r="E42">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="F42">
-        <v>0.1991222967323873</v>
+        <v>0.04424939927386384</v>
       </c>
       <c r="G42">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="H42">
-        <v>0.01345940700433374</v>
+        <v>0.002990979334296387</v>
       </c>
       <c r="I42">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="J42">
-        <v>0.24763520307345</v>
+        <v>0.05503004512743333</v>
       </c>
       <c r="K42">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="L42">
-        <v>0.2737910065808865</v>
+        <v>0.06084244590686365</v>
       </c>
       <c r="M42">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="N42">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O42">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P42">
-        <v>10.73804904789492</v>
+        <v>2.386233121754426</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2446,37 +2446,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.06696223083963536</v>
+        <v>0.01488049574214119</v>
       </c>
       <c r="C43">
-        <v>1.942656595499419</v>
+        <v>0.4317014656665377</v>
       </c>
       <c r="D43">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E43">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F43">
-        <v>0.1991222967323873</v>
+        <v>0.04424939927386384</v>
       </c>
       <c r="G43">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="J43">
-        <v>0.2682714699962375</v>
+        <v>0.05961588222138611</v>
       </c>
       <c r="K43">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="L43">
-        <v>0.4791342615165513</v>
+        <v>0.1064742803370114</v>
       </c>
       <c r="M43">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="P43">
-        <v>9.065547561182505</v>
+        <v>2.014566124707224</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2484,43 +2484,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.06553750252389845</v>
+        <v>0.01456388944975521</v>
       </c>
       <c r="C44">
-        <v>1.90132347644624</v>
+        <v>0.4225163280991644</v>
       </c>
       <c r="D44">
-        <v>0.0009474781766953568</v>
+        <v>0.0002105507059323015</v>
       </c>
       <c r="E44">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="F44">
-        <v>0.1493417225492904</v>
+        <v>0.03318704945539789</v>
       </c>
       <c r="G44">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="H44">
-        <v>0.05383762801733496</v>
+        <v>0.01196391733718555</v>
       </c>
       <c r="I44">
-        <v>1.517354466200503</v>
+        <v>0.3371898813778896</v>
       </c>
       <c r="J44">
-        <v>0.1650901353823</v>
+        <v>0.03668669675162222</v>
       </c>
       <c r="K44">
-        <v>0.8314547027199449</v>
+        <v>0.1847677117155433</v>
       </c>
       <c r="L44">
-        <v>0.1368955032904432</v>
+        <v>0.03042122295343182</v>
       </c>
       <c r="M44">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="P44">
-        <v>7.120532575871477</v>
+        <v>1.582340572415884</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2528,43 +2528,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1709673978884308</v>
+        <v>0.03799275508631794</v>
       </c>
       <c r="C45">
-        <v>4.959974286381497</v>
+        <v>1.102216508084777</v>
       </c>
       <c r="D45">
-        <v>0.0003158260588984522</v>
+        <v>7.01835686441005E-05</v>
       </c>
       <c r="E45">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="F45">
-        <v>0.1991222967323873</v>
+        <v>0.04424939927386384</v>
       </c>
       <c r="G45">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="H45">
-        <v>0.02691881400866748</v>
+        <v>0.005981958668592774</v>
       </c>
       <c r="I45">
-        <v>0.7586772331002514</v>
+        <v>0.1685949406889448</v>
       </c>
       <c r="J45">
-        <v>0.2682714699962375</v>
+        <v>0.05961588222138611</v>
       </c>
       <c r="K45">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="L45">
-        <v>0.1368955032904432</v>
+        <v>0.03042122295343182</v>
       </c>
       <c r="M45">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="P45">
-        <v>10.31661807359727</v>
+        <v>2.292581794132726</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,43 +2572,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.4929559972449754</v>
+        <v>0.10954577716555</v>
       </c>
       <c r="C46">
-        <v>14.30125919239998</v>
+        <v>3.178057598311108</v>
       </c>
       <c r="D46">
-        <v>0.002526608471187618</v>
+        <v>0.000561468549152804</v>
       </c>
       <c r="E46">
-        <v>0.9138776455465625</v>
+        <v>0.2030839212325694</v>
       </c>
       <c r="F46">
-        <v>0.7467086127464528</v>
+        <v>0.1659352472769894</v>
       </c>
       <c r="G46">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="H46">
-        <v>0.1211346630390037</v>
+        <v>0.02691881400866748</v>
       </c>
       <c r="I46">
-        <v>3.414047548951131</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="J46">
-        <v>0.866723210757075</v>
+        <v>0.1926051579460167</v>
       </c>
       <c r="K46">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="L46">
-        <v>1.095164026323546</v>
+        <v>0.2433697836274546</v>
       </c>
       <c r="M46">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="P46">
-        <v>38.60117419725734</v>
+        <v>8.578038710501632</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2616,49 +2616,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.7807511170238336</v>
+        <v>0.1735002482275185</v>
       </c>
       <c r="C47">
-        <v>22.65054924114217</v>
+        <v>5.033455386920482</v>
       </c>
       <c r="D47">
-        <v>0.004421564824578333</v>
+        <v>0.0009825699610174071</v>
       </c>
       <c r="E47">
-        <v>1.599285879706484</v>
+        <v>0.3553968621569965</v>
       </c>
       <c r="F47">
-        <v>0.7964891869295491</v>
+        <v>0.1769975970954553</v>
       </c>
       <c r="G47">
-        <v>5.985292880677726</v>
+        <v>1.33006508459505</v>
       </c>
       <c r="H47">
-        <v>0.4710792451516809</v>
+        <v>0.1046842767003735</v>
       </c>
       <c r="I47">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="J47">
-        <v>1.547720019209063</v>
+        <v>0.3439377820464584</v>
       </c>
       <c r="K47">
-        <v>7.794887837999485</v>
+        <v>1.732197297333219</v>
       </c>
       <c r="L47">
-        <v>2.258775804292313</v>
+        <v>0.5019501787316252</v>
       </c>
       <c r="M47">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="N47">
-        <v>0.06451816297765402</v>
+        <v>0.01433736955058979</v>
       </c>
       <c r="O47">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="P47">
-        <v>72.00803103188674</v>
+        <v>16.00178467375261</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2666,49 +2666,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.028653843962058</v>
+        <v>0.2285897431026797</v>
       </c>
       <c r="C48">
-        <v>29.84251195639533</v>
+        <v>6.631669323643413</v>
       </c>
       <c r="D48">
-        <v>0.00284243453008607</v>
+        <v>0.0006316521177969044</v>
       </c>
       <c r="E48">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F48">
-        <v>1.24451435457742</v>
+        <v>0.276558745461649</v>
       </c>
       <c r="G48">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="H48">
-        <v>0.5114574661646821</v>
+        <v>0.1136572147032627</v>
       </c>
       <c r="I48">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="J48">
-        <v>1.692173887668575</v>
+        <v>0.3760386417041278</v>
       </c>
       <c r="K48">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="L48">
-        <v>1.368955032904433</v>
+        <v>0.3042122295343184</v>
       </c>
       <c r="M48">
-        <v>8.338034283577935</v>
+        <v>1.852896507461764</v>
       </c>
       <c r="N48">
-        <v>0.02580726519106161</v>
+        <v>0.005734947820235915</v>
       </c>
       <c r="O48">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="P48">
-        <v>77.78022191197232</v>
+        <v>17.28449375821607</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2716,49 +2716,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.040051670487953</v>
+        <v>0.2311225934417675</v>
       </c>
       <c r="C49">
-        <v>30.17317690882076</v>
+        <v>6.705150424182393</v>
       </c>
       <c r="D49">
-        <v>0.003158260588984523</v>
+        <v>0.000701835686441005</v>
       </c>
       <c r="E49">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="F49">
-        <v>0.9956114836619364</v>
+        <v>0.2212469963693192</v>
       </c>
       <c r="G49">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="H49">
-        <v>0.3499445821126772</v>
+        <v>0.07776546269170606</v>
       </c>
       <c r="I49">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="J49">
-        <v>1.279448549212825</v>
+        <v>0.2843218998250724</v>
       </c>
       <c r="K49">
-        <v>6.443773946079574</v>
+        <v>1.431949765795461</v>
       </c>
       <c r="L49">
-        <v>2.053432549356649</v>
+        <v>0.4563183443014774</v>
       </c>
       <c r="M49">
-        <v>12.5070514253669</v>
+        <v>2.779344761192645</v>
       </c>
       <c r="N49">
-        <v>0.07742179557318483</v>
+        <v>0.01720484346070775</v>
       </c>
       <c r="O49">
-        <v>1.223582333753053</v>
+        <v>0.2719071852784563</v>
       </c>
       <c r="P49">
-        <v>74.63342069309813</v>
+        <v>16.58520459846625</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.2038944522965728</v>
+        <v>0.9175250353345782</v>
       </c>
       <c r="C2">
-        <v>5.915228593388302</v>
+        <v>26.61852867024736</v>
       </c>
       <c r="D2">
-        <v>0.001473854941526111</v>
+        <v>0.006632347236867497</v>
       </c>
       <c r="E2">
-        <v>0.5330952932354946</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="F2">
-        <v>0.3982445934647745</v>
+        <v>1.792100670591486</v>
       </c>
       <c r="G2">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H2">
-        <v>0.08374742136029883</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I2">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J2">
-        <v>0.5044420803348055</v>
+        <v>2.269989361506625</v>
       </c>
       <c r="K2">
-        <v>2.54055603608872</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="L2">
-        <v>0.6084244590686368</v>
+        <v>2.737910065808865</v>
       </c>
       <c r="M2">
-        <v>3.705793014923528</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="N2">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O2">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P2">
-        <v>19.94424608533314</v>
+        <v>89.74910738399912</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,43 +530,43 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.2342886563656273</v>
+        <v>1.054298953645323</v>
       </c>
       <c r="C3">
-        <v>6.797001799856124</v>
+        <v>30.58650809935257</v>
       </c>
       <c r="D3">
-        <v>0.001754589216102513</v>
+        <v>0.007895651472461306</v>
       </c>
       <c r="E3">
-        <v>0.6346372538517796</v>
+        <v>2.855867642333008</v>
       </c>
       <c r="F3">
-        <v>0.2654963956431831</v>
+        <v>1.194733780394323</v>
       </c>
       <c r="G3">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H3">
-        <v>0.04785566934874219</v>
+        <v>0.2153505120693398</v>
       </c>
       <c r="I3">
-        <v>1.348759525511558</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="J3">
-        <v>0.6328455189654834</v>
+        <v>2.847804835344676</v>
       </c>
       <c r="K3">
-        <v>3.187243027093122</v>
+        <v>14.34259362191905</v>
       </c>
       <c r="L3">
-        <v>0.9430579115563864</v>
+        <v>4.243760602003741</v>
       </c>
       <c r="M3">
-        <v>5.743979173131467</v>
+        <v>25.8479062790916</v>
       </c>
       <c r="P3">
-        <v>21.83201714743215</v>
+        <v>98.24407716344467</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -574,49 +574,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.1909135943087476</v>
+        <v>0.8591111743893649</v>
       </c>
       <c r="C4">
-        <v>5.538637953126002</v>
+        <v>24.923870789067</v>
       </c>
       <c r="D4">
-        <v>0.001263304235593809</v>
+        <v>0.00568486906017214</v>
       </c>
       <c r="E4">
-        <v>0.4569388227732812</v>
+        <v>2.056224702479765</v>
       </c>
       <c r="F4">
-        <v>0.2101846465508533</v>
+        <v>0.9458309094788397</v>
       </c>
       <c r="G4">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H4">
-        <v>0.08075644202600243</v>
+        <v>0.363403989117011</v>
       </c>
       <c r="I4">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="J4">
-        <v>0.4952704061469</v>
+        <v>2.22871682766105</v>
       </c>
       <c r="K4">
-        <v>2.494364108159835</v>
+        <v>11.22463848671926</v>
       </c>
       <c r="L4">
-        <v>0.6236350705453523</v>
+        <v>2.806357817454086</v>
       </c>
       <c r="M4">
-        <v>3.798437840296615</v>
+        <v>17.09297028133476</v>
       </c>
       <c r="N4">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O4">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P4">
-        <v>17.84225685167295</v>
+        <v>80.29015583252827</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -624,49 +624,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.2184583417463282</v>
+        <v>0.9830625378584767</v>
       </c>
       <c r="C5">
-        <v>6.337744921487467</v>
+        <v>28.5198521466936</v>
       </c>
       <c r="D5">
-        <v>0.001684405647458412</v>
+        <v>0.007579825413562854</v>
       </c>
       <c r="E5">
-        <v>0.6092517636977082</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="F5">
-        <v>0.3208081447355129</v>
+        <v>1.443636651309808</v>
       </c>
       <c r="G5">
-        <v>2.410742965828528</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="H5">
-        <v>0.05383762801733496</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I5">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J5">
-        <v>0.4815128948650416</v>
+        <v>2.166808026892687</v>
       </c>
       <c r="K5">
-        <v>2.425076216266507</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="L5">
-        <v>0.4411077328247617</v>
+        <v>1.984984797711428</v>
       </c>
       <c r="M5">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="N5">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O5">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P5">
-        <v>17.69702076962949</v>
+        <v>79.63659346333267</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -674,49 +674,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.2076937278052048</v>
+        <v>0.9346217751234212</v>
       </c>
       <c r="C6">
-        <v>6.02545024419678</v>
+        <v>27.1145260988855</v>
       </c>
       <c r="D6">
-        <v>0.002316057765255316</v>
+        <v>0.01042225994364892</v>
       </c>
       <c r="E6">
-        <v>0.837721175084349</v>
+        <v>3.76974528787957</v>
       </c>
       <c r="F6">
-        <v>0.2654963956431831</v>
+        <v>1.194733780394323</v>
       </c>
       <c r="G6">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="H6">
-        <v>0.05084664868303858</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I6">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J6">
-        <v>0.4769270577710888</v>
+        <v>2.1461717599699</v>
       </c>
       <c r="K6">
-        <v>2.401980252302063</v>
+        <v>10.80891113535928</v>
       </c>
       <c r="L6">
-        <v>0.5932138475919206</v>
+        <v>2.669462314163642</v>
       </c>
       <c r="M6">
-        <v>3.613148189550438</v>
+        <v>16.25916685297697</v>
       </c>
       <c r="N6">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O6">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P6">
-        <v>17.95113355726512</v>
+        <v>80.78010100769303</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -724,49 +724,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.2035778460041869</v>
+        <v>0.9161003070188408</v>
       </c>
       <c r="C7">
-        <v>5.90604345582093</v>
+        <v>26.57719555119419</v>
       </c>
       <c r="D7">
-        <v>0.00133348780423791</v>
+        <v>0.006000695119070593</v>
       </c>
       <c r="E7">
-        <v>0.4823243129273524</v>
+        <v>2.170459408173086</v>
       </c>
       <c r="F7">
-        <v>0.2101846465508533</v>
+        <v>0.9458309094788397</v>
       </c>
       <c r="G7">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H7">
-        <v>0.06879252468881693</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I7">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J7">
-        <v>0.536542939992475</v>
+        <v>2.414443229966138</v>
       </c>
       <c r="K7">
-        <v>2.702227783839822</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="L7">
-        <v>0.5475820131617729</v>
+        <v>2.46411905922798</v>
       </c>
       <c r="M7">
-        <v>3.335213713431174</v>
+        <v>15.00846171044029</v>
       </c>
       <c r="N7">
-        <v>0.02580726519106162</v>
+        <v>0.1161326933597773</v>
       </c>
       <c r="O7">
-        <v>0.4078607779176843</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="P7">
-        <v>17.94578487320985</v>
+        <v>80.75603192944436</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -774,49 +774,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.1962959012793093</v>
+        <v>0.8833315557568917</v>
       </c>
       <c r="C8">
-        <v>5.694785291771346</v>
+        <v>25.62653381297106</v>
       </c>
       <c r="D8">
-        <v>0.002035323490678915</v>
+        <v>0.009158955708055116</v>
       </c>
       <c r="E8">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="F8">
-        <v>0.2212469963693192</v>
+        <v>0.9956114836619364</v>
       </c>
       <c r="G8">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="H8">
-        <v>0.05981958668592775</v>
+        <v>0.2691881400866747</v>
       </c>
       <c r="I8">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="J8">
-        <v>0.5090279174287583</v>
+        <v>2.290625628429412</v>
       </c>
       <c r="K8">
-        <v>2.563652000053164</v>
+        <v>11.53643400023923</v>
       </c>
       <c r="L8">
-        <v>0.4563183443014774</v>
+        <v>2.053432549356649</v>
       </c>
       <c r="M8">
-        <v>2.779344761192645</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="N8">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O8">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P8">
-        <v>16.71179211404353</v>
+        <v>75.2030645131959</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -824,49 +824,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.2200413732082579</v>
+        <v>0.9901861794371611</v>
       </c>
       <c r="C9">
-        <v>6.383670609324331</v>
+        <v>28.72651774195949</v>
       </c>
       <c r="D9">
-        <v>0.001122937098305608</v>
+        <v>0.005053216942375235</v>
       </c>
       <c r="E9">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="F9">
-        <v>0.4424939927386384</v>
+        <v>1.991222967323873</v>
       </c>
       <c r="G9">
-        <v>3.325162711487626</v>
+        <v>14.96323220169431</v>
       </c>
       <c r="H9">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I9">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J9">
-        <v>0.4998562432408528</v>
+        <v>2.249353094583837</v>
       </c>
       <c r="K9">
-        <v>2.517460072124278</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="L9">
-        <v>0.3346334524877502</v>
+        <v>1.505850536194876</v>
       </c>
       <c r="M9">
-        <v>2.03818615820794</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="N9">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O9">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P9">
-        <v>18.40827419904315</v>
+        <v>82.8372338956942</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.2678489233585414</v>
+        <v>1.205320155113437</v>
       </c>
       <c r="C10">
-        <v>7.770626381997676</v>
+        <v>34.96781871898955</v>
       </c>
       <c r="D10">
-        <v>0.001684405647458412</v>
+        <v>0.007579825413562854</v>
       </c>
       <c r="E10">
-        <v>0.6092517636977082</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="F10">
-        <v>0.276558745461649</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G10">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H10">
-        <v>0.0658015453545205</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I10">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J10">
-        <v>0.4356545239255139</v>
+        <v>1.960445357664812</v>
       </c>
       <c r="K10">
-        <v>2.194116576622077</v>
+        <v>9.873524594799347</v>
       </c>
       <c r="L10">
-        <v>0.2433697836274546</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M10">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="N10">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O10">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P10">
-        <v>17.32818623604336</v>
+        <v>77.97683806219514</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.2615167975108216</v>
+        <v>1.176825588798698</v>
       </c>
       <c r="C11">
-        <v>7.586923630650213</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="D11">
-        <v>0.0004912849805087036</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E11">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F11">
-        <v>0.2986834450985809</v>
+        <v>1.344075502943614</v>
       </c>
       <c r="G11">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H11">
-        <v>0.07776546269170606</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I11">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J11">
-        <v>0.2292918546976389</v>
+        <v>1.031813346139375</v>
       </c>
       <c r="K11">
-        <v>1.154798198222146</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="L11">
-        <v>0.1521061147671592</v>
+        <v>0.6844775164522163</v>
       </c>
       <c r="M11">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="N11">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O11">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P11">
-        <v>15.39831320888497</v>
+        <v>69.29240943998238</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.2304893808569954</v>
+        <v>1.03720221385648</v>
       </c>
       <c r="C12">
-        <v>6.686780149047648</v>
+        <v>30.09051067071441</v>
       </c>
       <c r="D12">
-        <v>0.0008422028237292062</v>
+        <v>0.003789912706781427</v>
       </c>
       <c r="E12">
-        <v>0.3046258818488541</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="F12">
-        <v>0.2101846465508533</v>
+        <v>0.9458309094788397</v>
       </c>
       <c r="G12">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H12">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I12">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J12">
-        <v>0.1650901353823</v>
+        <v>0.74290560922035</v>
       </c>
       <c r="K12">
-        <v>0.8314547027199449</v>
+        <v>3.741546162239753</v>
       </c>
       <c r="L12">
-        <v>0.2585803951041707</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M12">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N12">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O12">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P12">
-        <v>14.99392822863691</v>
+        <v>67.4726770288661</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.1810987992447822</v>
+        <v>0.8149445966015193</v>
       </c>
       <c r="C13">
-        <v>5.25389868853744</v>
+        <v>23.64254409841846</v>
       </c>
       <c r="D13">
-        <v>0.0004211014118646031</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E13">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F13">
-        <v>0.1659352472769894</v>
+        <v>0.7467086127464528</v>
       </c>
       <c r="G13">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H13">
-        <v>0.08374742136029883</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I13">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J13">
-        <v>0.1467467870064889</v>
+        <v>0.6603605415291999</v>
       </c>
       <c r="K13">
-        <v>0.7390708468621734</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="L13">
-        <v>0.1368955032904432</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M13">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N13">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O13">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P13">
-        <v>11.34938128884898</v>
+        <v>51.0722157998204</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.1421562252813062</v>
+        <v>0.6397030137658782</v>
       </c>
       <c r="C14">
-        <v>4.124126767750541</v>
+        <v>18.55857045487744</v>
       </c>
       <c r="D14">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E14">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F14">
-        <v>0.1548728974585235</v>
+        <v>0.6969280385633554</v>
       </c>
       <c r="G14">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H14">
-        <v>0.09571133869748438</v>
+        <v>0.4307010241386797</v>
       </c>
       <c r="I14">
-        <v>2.697519051023117</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="J14">
-        <v>0.09630257897300834</v>
+        <v>0.4333616053785375</v>
       </c>
       <c r="K14">
-        <v>0.4850152432533013</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="L14">
-        <v>0.09126366886029552</v>
+        <v>0.4106865098713298</v>
       </c>
       <c r="M14">
-        <v>0.5558689522385291</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="P14">
-        <v>9.83574473606121</v>
+        <v>44.26085131227546</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,49 +1118,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.09339885625386496</v>
+        <v>0.4202948531423921</v>
       </c>
       <c r="C15">
-        <v>2.709615582375077</v>
+        <v>12.19327012068785</v>
       </c>
       <c r="D15">
-        <v>0.000280734274576402</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E15">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F15">
-        <v>0.06637409891079578</v>
+        <v>0.2986834450985809</v>
       </c>
       <c r="G15">
-        <v>0.4987744067231438</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H15">
-        <v>0.05383762801733496</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I15">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J15">
-        <v>0.06878755640929164</v>
+        <v>0.3095440038418125</v>
       </c>
       <c r="K15">
-        <v>0.3464394594666437</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L15">
-        <v>0.1064742803370114</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M15">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="N15">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O15">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P15">
-        <v>6.259578145319338</v>
+        <v>28.16810165393703</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,43 +1168,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.04844076273505538</v>
+        <v>0.217983432307749</v>
       </c>
       <c r="C16">
-        <v>1.405326047808091</v>
+        <v>6.32396721513641</v>
       </c>
       <c r="D16">
-        <v>0.0007720192550851056</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E16">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F16">
-        <v>0.08849879854772767</v>
+        <v>0.3982445934647745</v>
       </c>
       <c r="G16">
-        <v>0.6650325422975251</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H16">
-        <v>0.0239278346743711</v>
+        <v>0.1076752560346699</v>
       </c>
       <c r="I16">
-        <v>0.6743797627557792</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="J16">
-        <v>0.08254506769115</v>
+        <v>0.371452804610175</v>
       </c>
       <c r="K16">
-        <v>0.4157273513599725</v>
+        <v>1.870773081119876</v>
       </c>
       <c r="L16">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M16">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P16">
-        <v>4.22316776306856</v>
+        <v>19.00425493380852</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1212,37 +1212,37 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.0332436607005282</v>
+        <v>0.1495964731523768</v>
       </c>
       <c r="C17">
-        <v>0.96443944457418</v>
+        <v>4.339977500583809</v>
       </c>
       <c r="D17">
-        <v>0.0003509178432205025</v>
+        <v>0.001579130294492261</v>
       </c>
       <c r="E17">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="F17">
-        <v>0.02212469963693192</v>
+        <v>0.09956114836619363</v>
       </c>
       <c r="G17">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="J17">
-        <v>0.041272533845575</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K17">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L17">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M17">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P17">
-        <v>2.10175770287418</v>
+        <v>9.457909662933806</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,49 +1250,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.02691153485280854</v>
+        <v>0.1211019068376385</v>
       </c>
       <c r="C18">
-        <v>0.7807366932267171</v>
+        <v>3.513315119520227</v>
       </c>
       <c r="D18">
-        <v>0.000701835686441005</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E18">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F18">
-        <v>0.04424939927386384</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G18">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H18">
-        <v>0.002990979334296387</v>
+        <v>0.01345940700433374</v>
       </c>
       <c r="I18">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="J18">
-        <v>0.05503004512743333</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K18">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L18">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M18">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="N18">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O18">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P18">
-        <v>2.386233121754426</v>
+        <v>10.73804904789492</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,37 +1300,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.01488049574214119</v>
+        <v>0.06696223083963536</v>
       </c>
       <c r="C19">
-        <v>0.4317014656665377</v>
+        <v>1.942656595499419</v>
       </c>
       <c r="D19">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E19">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F19">
-        <v>0.04424939927386384</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G19">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="J19">
-        <v>0.05961588222138611</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K19">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L19">
-        <v>0.1064742803370114</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M19">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="P19">
-        <v>2.014566124707224</v>
+        <v>9.065547561182505</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1338,43 +1338,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.01456388944975521</v>
+        <v>0.06553750252389845</v>
       </c>
       <c r="C20">
-        <v>0.4225163280991644</v>
+        <v>1.90132347644624</v>
       </c>
       <c r="D20">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E20">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F20">
-        <v>0.03318704945539789</v>
+        <v>0.1493417225492904</v>
       </c>
       <c r="G20">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="H20">
-        <v>0.01196391733718555</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I20">
-        <v>0.3371898813778896</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J20">
-        <v>0.03668669675162222</v>
+        <v>0.1650901353823</v>
       </c>
       <c r="K20">
-        <v>0.1847677117155433</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="L20">
-        <v>0.03042122295343182</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M20">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P20">
-        <v>1.582340572415884</v>
+        <v>7.120532575871477</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,43 +1382,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.03799275508631794</v>
+        <v>0.1709673978884308</v>
       </c>
       <c r="C21">
-        <v>1.102216508084777</v>
+        <v>4.959974286381497</v>
       </c>
       <c r="D21">
-        <v>7.01835686441005E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E21">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F21">
-        <v>0.04424939927386384</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G21">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H21">
-        <v>0.005981958668592774</v>
+        <v>0.02691881400866748</v>
       </c>
       <c r="I21">
-        <v>0.1685949406889448</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="J21">
-        <v>0.05961588222138611</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K21">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L21">
-        <v>0.03042122295343182</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M21">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P21">
-        <v>2.292581794132726</v>
+        <v>10.31661807359727</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1426,43 +1426,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.10954577716555</v>
+        <v>0.4929559972449754</v>
       </c>
       <c r="C22">
-        <v>3.178057598311108</v>
+        <v>14.30125919239998</v>
       </c>
       <c r="D22">
-        <v>0.000561468549152804</v>
+        <v>0.002526608471187618</v>
       </c>
       <c r="E22">
-        <v>0.2030839212325694</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="F22">
-        <v>0.1659352472769894</v>
+        <v>0.7467086127464528</v>
       </c>
       <c r="G22">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H22">
-        <v>0.02691881400866748</v>
+        <v>0.1211346630390037</v>
       </c>
       <c r="I22">
-        <v>0.7586772331002514</v>
+        <v>3.414047548951131</v>
       </c>
       <c r="J22">
-        <v>0.1926051579460167</v>
+        <v>0.866723210757075</v>
       </c>
       <c r="K22">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="L22">
-        <v>0.2433697836274546</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M22">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="P22">
-        <v>8.578038710501632</v>
+        <v>38.60117419725734</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.1735002482275185</v>
+        <v>0.7807511170238336</v>
       </c>
       <c r="C23">
-        <v>5.033455386920482</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="D23">
-        <v>0.0009825699610174071</v>
+        <v>0.004421564824578333</v>
       </c>
       <c r="E23">
-        <v>0.3553968621569965</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="F23">
-        <v>0.1769975970954553</v>
+        <v>0.7964891869295491</v>
       </c>
       <c r="G23">
-        <v>1.33006508459505</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="H23">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I23">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J23">
-        <v>0.3439377820464584</v>
+        <v>1.547720019209063</v>
       </c>
       <c r="K23">
-        <v>1.732197297333219</v>
+        <v>7.794887837999485</v>
       </c>
       <c r="L23">
-        <v>0.5019501787316252</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M23">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N23">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O23">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P23">
-        <v>16.00178467375261</v>
+        <v>72.00803103188674</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.2285897431026797</v>
+        <v>1.028653843962058</v>
       </c>
       <c r="C24">
-        <v>6.631669323643413</v>
+        <v>29.84251195639533</v>
       </c>
       <c r="D24">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E24">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F24">
-        <v>0.276558745461649</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G24">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H24">
-        <v>0.1136572147032627</v>
+        <v>0.5114574661646821</v>
       </c>
       <c r="I24">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="J24">
-        <v>0.3760386417041278</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K24">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L24">
-        <v>0.3042122295343184</v>
+        <v>1.368955032904433</v>
       </c>
       <c r="M24">
-        <v>1.852896507461764</v>
+        <v>8.338034283577935</v>
       </c>
       <c r="N24">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O24">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P24">
-        <v>17.28449375821607</v>
+        <v>77.78022191197232</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.2311225934417675</v>
+        <v>1.040051670487953</v>
       </c>
       <c r="C25">
-        <v>6.705150424182393</v>
+        <v>30.17317690882076</v>
       </c>
       <c r="D25">
-        <v>0.000701835686441005</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E25">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F25">
-        <v>0.2212469963693192</v>
+        <v>0.9956114836619364</v>
       </c>
       <c r="G25">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="H25">
-        <v>0.07776546269170606</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I25">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J25">
-        <v>0.2843218998250724</v>
+        <v>1.279448549212825</v>
       </c>
       <c r="K25">
-        <v>1.431949765795461</v>
+        <v>6.443773946079574</v>
       </c>
       <c r="L25">
-        <v>0.4563183443014774</v>
+        <v>2.053432549356649</v>
       </c>
       <c r="M25">
-        <v>2.779344761192645</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="N25">
-        <v>0.01720484346070775</v>
+        <v>0.07742179557318483</v>
       </c>
       <c r="O25">
-        <v>0.2719071852784563</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="P25">
-        <v>16.58520459846625</v>
+        <v>74.63342069309813</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.2038944522965728</v>
+        <v>0.9175250353345782</v>
       </c>
       <c r="C26">
-        <v>5.915228593388302</v>
+        <v>26.61852867024736</v>
       </c>
       <c r="D26">
-        <v>0.001473854941526111</v>
+        <v>0.006632347236867497</v>
       </c>
       <c r="E26">
-        <v>0.5330952932354946</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="F26">
-        <v>0.3982445934647745</v>
+        <v>1.792100670591486</v>
       </c>
       <c r="G26">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="H26">
-        <v>0.08374742136029883</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I26">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J26">
-        <v>0.5044420803348055</v>
+        <v>2.269989361506625</v>
       </c>
       <c r="K26">
-        <v>2.54055603608872</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="L26">
-        <v>0.6084244590686368</v>
+        <v>2.737910065808865</v>
       </c>
       <c r="M26">
-        <v>3.705793014923528</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="N26">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O26">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P26">
-        <v>19.94424608533314</v>
+        <v>89.74910738399912</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.1760330985666066</v>
+        <v>0.7921489435497293</v>
       </c>
       <c r="C27">
-        <v>5.106936487459468</v>
+        <v>22.98121419356761</v>
       </c>
       <c r="D27">
-        <v>0.001473854941526111</v>
+        <v>0.006632347236867497</v>
       </c>
       <c r="E27">
-        <v>0.5330952932354946</v>
+        <v>2.398928819559726</v>
       </c>
       <c r="F27">
-        <v>0.2876210952801151</v>
+        <v>1.294294928760518</v>
       </c>
       <c r="G27">
-        <v>2.161355762466957</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="H27">
-        <v>0.05084664868303858</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I27">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J27">
-        <v>0.5915729851199082</v>
+        <v>2.662078433039587</v>
       </c>
       <c r="K27">
-        <v>2.979379351413137</v>
+        <v>13.40720708135911</v>
       </c>
       <c r="L27">
-        <v>0.4258971213480456</v>
+        <v>1.916537046066205</v>
       </c>
       <c r="M27">
-        <v>2.594055110446469</v>
+        <v>11.67324799700911</v>
       </c>
       <c r="N27">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O27">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P27">
-        <v>16.38950914293999</v>
+        <v>73.75279114322994</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.1997785704955551</v>
+        <v>0.8990035672299979</v>
       </c>
       <c r="C28">
-        <v>5.795821805012452</v>
+        <v>26.08119812255603</v>
       </c>
       <c r="D28">
-        <v>0.002035323490678915</v>
+        <v>0.009158955708055116</v>
       </c>
       <c r="E28">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="F28">
-        <v>0.2876210952801151</v>
+        <v>1.294294928760518</v>
       </c>
       <c r="G28">
-        <v>2.161355762466957</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="H28">
-        <v>0.06879252468881693</v>
+        <v>0.3095663610996759</v>
       </c>
       <c r="I28">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="J28">
-        <v>0.4585837093952777</v>
+        <v>2.063626692278749</v>
       </c>
       <c r="K28">
-        <v>2.309596396444292</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="L28">
-        <v>0.6084244590686368</v>
+        <v>2.737910065808865</v>
       </c>
       <c r="M28">
-        <v>3.705793014923528</v>
+        <v>16.67606856715587</v>
       </c>
       <c r="N28">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O28">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P28">
-        <v>18.36919436990362</v>
+        <v>82.6613746645663</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.1820486181219401</v>
+        <v>0.8192187815487303</v>
       </c>
       <c r="C29">
-        <v>5.281454101239555</v>
+        <v>23.766543455578</v>
       </c>
       <c r="D29">
-        <v>0.001754589216102513</v>
+        <v>0.007895651472461306</v>
       </c>
       <c r="E29">
-        <v>0.6346372538517796</v>
+        <v>2.855867642333008</v>
       </c>
       <c r="F29">
-        <v>0.3097457949170469</v>
+        <v>1.393856077126711</v>
       </c>
       <c r="G29">
-        <v>2.327613898041337</v>
+        <v>10.47426254118602</v>
       </c>
       <c r="H29">
-        <v>0.05084664868303858</v>
+        <v>0.2288099190736735</v>
       </c>
       <c r="I29">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="J29">
-        <v>0.3760386417041278</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K29">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L29">
-        <v>0.2585803951041707</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M29">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N29">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O29">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P29">
-        <v>14.46916402753153</v>
+        <v>65.11123812389188</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.1839482558762561</v>
+        <v>0.827767151443152</v>
       </c>
       <c r="C30">
-        <v>5.336564926643793</v>
+        <v>24.01454216989708</v>
       </c>
       <c r="D30">
-        <v>0.001052753529661508</v>
+        <v>0.004737390883476786</v>
       </c>
       <c r="E30">
-        <v>0.3807823523110677</v>
+        <v>1.713520585399804</v>
       </c>
       <c r="F30">
-        <v>0.276558745461649</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G30">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H30">
-        <v>0.04486469001444579</v>
+        <v>0.2018911050650061</v>
       </c>
       <c r="I30">
-        <v>1.264462055167085</v>
+        <v>5.690079248251886</v>
       </c>
       <c r="J30">
-        <v>0.4585837093952777</v>
+        <v>2.063626692278749</v>
       </c>
       <c r="K30">
-        <v>2.309596396444292</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="L30">
-        <v>0.5019501787316252</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M30">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N30">
-        <v>0.01146989564047183</v>
+        <v>0.05161453038212322</v>
       </c>
       <c r="O30">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="P30">
-        <v>16.0866113480596</v>
+        <v>72.38975106626823</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.1845814684610279</v>
+        <v>0.8306166080746257</v>
       </c>
       <c r="C31">
-        <v>5.354935201778544</v>
+        <v>24.09720840800344</v>
       </c>
       <c r="D31">
-        <v>0.00140367137288201</v>
+        <v>0.006316521177969045</v>
       </c>
       <c r="E31">
-        <v>0.5077098030814237</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="F31">
-        <v>0.3539951941909107</v>
+        <v>1.592978373859098</v>
       </c>
       <c r="G31">
-        <v>2.6601301691901</v>
+        <v>11.97058576135545</v>
       </c>
       <c r="H31">
-        <v>0.04785566934874219</v>
+        <v>0.2153505120693398</v>
       </c>
       <c r="I31">
-        <v>1.348759525511558</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="J31">
-        <v>0.536542939992475</v>
+        <v>2.414443229966138</v>
       </c>
       <c r="K31">
-        <v>2.702227783839822</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="L31">
-        <v>0.3194228410110341</v>
+        <v>1.437402784549655</v>
       </c>
       <c r="M31">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="N31">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O31">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P31">
-        <v>16.05947627685976</v>
+        <v>72.26764324586891</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,49 +1920,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.1931298383554496</v>
+        <v>0.8690842725995225</v>
       </c>
       <c r="C32">
-        <v>5.602933916097614</v>
+        <v>25.21320262243926</v>
       </c>
       <c r="D32">
-        <v>0.001614222078814312</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E32">
-        <v>0.5838662735436371</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="F32">
-        <v>0.276558745461649</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G32">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H32">
-        <v>0.06281056602022411</v>
+        <v>0.2826475470910085</v>
       </c>
       <c r="I32">
-        <v>1.77024687723392</v>
+        <v>7.96611094755264</v>
       </c>
       <c r="J32">
-        <v>0.536542939992475</v>
+        <v>2.414443229966138</v>
       </c>
       <c r="K32">
-        <v>2.702227783839822</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="L32">
-        <v>0.3498440639644661</v>
+        <v>1.574298287840097</v>
       </c>
       <c r="M32">
-        <v>2.130830983581028</v>
+        <v>9.588739426114625</v>
       </c>
       <c r="N32">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O32">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P32">
-        <v>16.43338891921845</v>
+        <v>73.95025013648301</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1970,49 +1970,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.2200413732082579</v>
+        <v>0.9901861794371611</v>
       </c>
       <c r="C33">
-        <v>6.383670609324331</v>
+        <v>28.72651774195949</v>
       </c>
       <c r="D33">
-        <v>0.001122937098305608</v>
+        <v>0.005053216942375235</v>
       </c>
       <c r="E33">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="F33">
-        <v>0.4424939927386384</v>
+        <v>1.991222967323873</v>
       </c>
       <c r="G33">
-        <v>3.325162711487626</v>
+        <v>14.96323220169431</v>
       </c>
       <c r="H33">
-        <v>0.07178350402311326</v>
+        <v>0.3230257681040097</v>
       </c>
       <c r="I33">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="J33">
-        <v>0.4998562432408528</v>
+        <v>2.249353094583837</v>
       </c>
       <c r="K33">
-        <v>2.517460072124278</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="L33">
-        <v>0.3346334524877502</v>
+        <v>1.505850536194876</v>
       </c>
       <c r="M33">
-        <v>2.03818615820794</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="N33">
-        <v>0.008602421730353875</v>
+        <v>0.03871089778659242</v>
       </c>
       <c r="O33">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="P33">
-        <v>18.40827419904315</v>
+        <v>82.8372338956942</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,49 +2020,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.2678489233585414</v>
+        <v>1.205320155113437</v>
       </c>
       <c r="C34">
-        <v>7.770626381997676</v>
+        <v>34.96781871898955</v>
       </c>
       <c r="D34">
-        <v>0.001684405647458412</v>
+        <v>0.007579825413562854</v>
       </c>
       <c r="E34">
-        <v>0.6092517636977082</v>
+        <v>2.741632936639687</v>
       </c>
       <c r="F34">
-        <v>0.276558745461649</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G34">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H34">
-        <v>0.0658015453545205</v>
+        <v>0.2961069540953423</v>
       </c>
       <c r="I34">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="J34">
-        <v>0.4356545239255139</v>
+        <v>1.960445357664812</v>
       </c>
       <c r="K34">
-        <v>2.194116576622077</v>
+        <v>9.873524594799347</v>
       </c>
       <c r="L34">
-        <v>0.2433697836274546</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M34">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="N34">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O34">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P34">
-        <v>17.32818623604336</v>
+        <v>77.97683806219514</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2070,49 +2070,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.2615167975108216</v>
+        <v>1.176825588798698</v>
       </c>
       <c r="C35">
-        <v>7.586923630650213</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="D35">
-        <v>0.0004912849805087036</v>
+        <v>0.002210782412289166</v>
       </c>
       <c r="E35">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="F35">
-        <v>0.2986834450985809</v>
+        <v>1.344075502943614</v>
       </c>
       <c r="G35">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="H35">
-        <v>0.07776546269170606</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I35">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J35">
-        <v>0.2292918546976389</v>
+        <v>1.031813346139375</v>
       </c>
       <c r="K35">
-        <v>1.154798198222146</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="L35">
-        <v>0.1521061147671592</v>
+        <v>0.6844775164522163</v>
       </c>
       <c r="M35">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="N35">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O35">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P35">
-        <v>15.39831320888497</v>
+        <v>69.29240943998238</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2120,49 +2120,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.2304893808569954</v>
+        <v>1.03720221385648</v>
       </c>
       <c r="C36">
-        <v>6.686780149047648</v>
+        <v>30.09051067071441</v>
       </c>
       <c r="D36">
-        <v>0.0008422028237292062</v>
+        <v>0.003789912706781427</v>
       </c>
       <c r="E36">
-        <v>0.3046258818488541</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="F36">
-        <v>0.2101846465508533</v>
+        <v>0.9458309094788397</v>
       </c>
       <c r="G36">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="H36">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I36">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J36">
-        <v>0.1650901353823</v>
+        <v>0.74290560922035</v>
       </c>
       <c r="K36">
-        <v>0.8314547027199449</v>
+        <v>3.741546162239753</v>
       </c>
       <c r="L36">
-        <v>0.2585803951041707</v>
+        <v>1.163611777968768</v>
       </c>
       <c r="M36">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="N36">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O36">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P36">
-        <v>14.99392822863691</v>
+        <v>67.4726770288661</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2170,49 +2170,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.1810987992447822</v>
+        <v>0.8149445966015193</v>
       </c>
       <c r="C37">
-        <v>5.25389868853744</v>
+        <v>23.64254409841846</v>
       </c>
       <c r="D37">
-        <v>0.0004211014118646031</v>
+        <v>0.001894956353390714</v>
       </c>
       <c r="E37">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F37">
-        <v>0.1659352472769894</v>
+        <v>0.7467086127464528</v>
       </c>
       <c r="G37">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H37">
-        <v>0.08374742136029883</v>
+        <v>0.3768633961213446</v>
       </c>
       <c r="I37">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="J37">
-        <v>0.1467467870064889</v>
+        <v>0.6603605415291999</v>
       </c>
       <c r="K37">
-        <v>0.7390708468621734</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="L37">
-        <v>0.1368955032904432</v>
+        <v>0.616029764806995</v>
       </c>
       <c r="M37">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="N37">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O37">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P37">
-        <v>11.34938128884898</v>
+        <v>51.0722157998204</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2220,43 +2220,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.1421562252813062</v>
+        <v>0.6397030137658782</v>
       </c>
       <c r="C38">
-        <v>4.124126767750541</v>
+        <v>18.55857045487744</v>
       </c>
       <c r="D38">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E38">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F38">
-        <v>0.1548728974585235</v>
+        <v>0.6969280385633554</v>
       </c>
       <c r="G38">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="H38">
-        <v>0.09571133869748438</v>
+        <v>0.4307010241386797</v>
       </c>
       <c r="I38">
-        <v>2.697519051023117</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="J38">
-        <v>0.09630257897300834</v>
+        <v>0.4333616053785375</v>
       </c>
       <c r="K38">
-        <v>0.4850152432533013</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="L38">
-        <v>0.09126366886029552</v>
+        <v>0.4106865098713298</v>
       </c>
       <c r="M38">
-        <v>0.5558689522385291</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="P38">
-        <v>9.83574473606121</v>
+        <v>44.26085131227546</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2264,49 +2264,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.09339885625386496</v>
+        <v>0.4202948531423921</v>
       </c>
       <c r="C39">
-        <v>2.709615582375077</v>
+        <v>12.19327012068785</v>
       </c>
       <c r="D39">
-        <v>0.000280734274576402</v>
+        <v>0.001263304235593809</v>
       </c>
       <c r="E39">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="F39">
-        <v>0.06637409891079578</v>
+        <v>0.2986834450985809</v>
       </c>
       <c r="G39">
-        <v>0.4987744067231438</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="H39">
-        <v>0.05383762801733496</v>
+        <v>0.2422693260780073</v>
       </c>
       <c r="I39">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="J39">
-        <v>0.06878755640929164</v>
+        <v>0.3095440038418125</v>
       </c>
       <c r="K39">
-        <v>0.3464394594666437</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L39">
-        <v>0.1064742803370114</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M39">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="N39">
-        <v>0.002867473910117957</v>
+        <v>0.01290363259553081</v>
       </c>
       <c r="O39">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="P39">
-        <v>6.259578145319338</v>
+        <v>28.16810165393703</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.04844076273505538</v>
+        <v>0.217983432307749</v>
       </c>
       <c r="C40">
-        <v>1.405326047808091</v>
+        <v>6.32396721513641</v>
       </c>
       <c r="D40">
-        <v>0.0007720192550851056</v>
+        <v>0.003474086647882975</v>
       </c>
       <c r="E40">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F40">
-        <v>0.08849879854772767</v>
+        <v>0.3982445934647745</v>
       </c>
       <c r="G40">
-        <v>0.6650325422975251</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="H40">
-        <v>0.0239278346743711</v>
+        <v>0.1076752560346699</v>
       </c>
       <c r="I40">
-        <v>0.6743797627557792</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="J40">
-        <v>0.08254506769115</v>
+        <v>0.371452804610175</v>
       </c>
       <c r="K40">
-        <v>0.4157273513599725</v>
+        <v>1.870773081119876</v>
       </c>
       <c r="L40">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M40">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P40">
-        <v>4.22316776306856</v>
+        <v>19.00425493380852</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,37 +2358,37 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.0332436607005282</v>
+        <v>0.1495964731523768</v>
       </c>
       <c r="C41">
-        <v>0.96443944457418</v>
+        <v>4.339977500583809</v>
       </c>
       <c r="D41">
-        <v>0.0003509178432205025</v>
+        <v>0.001579130294492261</v>
       </c>
       <c r="E41">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="F41">
-        <v>0.02212469963693192</v>
+        <v>0.09956114836619363</v>
       </c>
       <c r="G41">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="J41">
-        <v>0.041272533845575</v>
+        <v>0.1857264023050875</v>
       </c>
       <c r="K41">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="L41">
-        <v>0.07605305738357961</v>
+        <v>0.3422387582261082</v>
       </c>
       <c r="M41">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="P41">
-        <v>2.10175770287418</v>
+        <v>9.457909662933806</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2396,49 +2396,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.02691153485280854</v>
+        <v>0.1211019068376385</v>
       </c>
       <c r="C42">
-        <v>0.7807366932267171</v>
+        <v>3.513315119520227</v>
       </c>
       <c r="D42">
-        <v>0.000701835686441005</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E42">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F42">
-        <v>0.04424939927386384</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G42">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H42">
-        <v>0.002990979334296387</v>
+        <v>0.01345940700433374</v>
       </c>
       <c r="I42">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="J42">
-        <v>0.05503004512743333</v>
+        <v>0.24763520307345</v>
       </c>
       <c r="K42">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="L42">
-        <v>0.06084244590686365</v>
+        <v>0.2737910065808865</v>
       </c>
       <c r="M42">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="N42">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O42">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P42">
-        <v>2.386233121754426</v>
+        <v>10.73804904789492</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2446,37 +2446,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.01488049574214119</v>
+        <v>0.06696223083963536</v>
       </c>
       <c r="C43">
-        <v>0.4317014656665377</v>
+        <v>1.942656595499419</v>
       </c>
       <c r="D43">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E43">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F43">
-        <v>0.04424939927386384</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G43">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="J43">
-        <v>0.05961588222138611</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K43">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L43">
-        <v>0.1064742803370114</v>
+        <v>0.4791342615165513</v>
       </c>
       <c r="M43">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="P43">
-        <v>2.014566124707224</v>
+        <v>9.065547561182505</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2484,43 +2484,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.01456388944975521</v>
+        <v>0.06553750252389845</v>
       </c>
       <c r="C44">
-        <v>0.4225163280991644</v>
+        <v>1.90132347644624</v>
       </c>
       <c r="D44">
-        <v>0.0002105507059323015</v>
+        <v>0.0009474781766953568</v>
       </c>
       <c r="E44">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="F44">
-        <v>0.03318704945539789</v>
+        <v>0.1493417225492904</v>
       </c>
       <c r="G44">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="H44">
-        <v>0.01196391733718555</v>
+        <v>0.05383762801733496</v>
       </c>
       <c r="I44">
-        <v>0.3371898813778896</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="J44">
-        <v>0.03668669675162222</v>
+        <v>0.1650901353823</v>
       </c>
       <c r="K44">
-        <v>0.1847677117155433</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="L44">
-        <v>0.03042122295343182</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M44">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P44">
-        <v>1.582340572415884</v>
+        <v>7.120532575871477</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2528,43 +2528,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.03799275508631794</v>
+        <v>0.1709673978884308</v>
       </c>
       <c r="C45">
-        <v>1.102216508084777</v>
+        <v>4.959974286381497</v>
       </c>
       <c r="D45">
-        <v>7.01835686441005E-05</v>
+        <v>0.0003158260588984522</v>
       </c>
       <c r="E45">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="F45">
-        <v>0.04424939927386384</v>
+        <v>0.1991222967323873</v>
       </c>
       <c r="G45">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="H45">
-        <v>0.005981958668592774</v>
+        <v>0.02691881400866748</v>
       </c>
       <c r="I45">
-        <v>0.1685949406889448</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="J45">
-        <v>0.05961588222138611</v>
+        <v>0.2682714699962375</v>
       </c>
       <c r="K45">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="L45">
-        <v>0.03042122295343182</v>
+        <v>0.1368955032904432</v>
       </c>
       <c r="M45">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="P45">
-        <v>2.292581794132726</v>
+        <v>10.31661807359727</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,43 +2572,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.10954577716555</v>
+        <v>0.4929559972449754</v>
       </c>
       <c r="C46">
-        <v>3.178057598311108</v>
+        <v>14.30125919239998</v>
       </c>
       <c r="D46">
-        <v>0.000561468549152804</v>
+        <v>0.002526608471187618</v>
       </c>
       <c r="E46">
-        <v>0.2030839212325694</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="F46">
-        <v>0.1659352472769894</v>
+        <v>0.7467086127464528</v>
       </c>
       <c r="G46">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="H46">
-        <v>0.02691881400866748</v>
+        <v>0.1211346630390037</v>
       </c>
       <c r="I46">
-        <v>0.7586772331002514</v>
+        <v>3.414047548951131</v>
       </c>
       <c r="J46">
-        <v>0.1926051579460167</v>
+        <v>0.866723210757075</v>
       </c>
       <c r="K46">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="L46">
-        <v>0.2433697836274546</v>
+        <v>1.095164026323546</v>
       </c>
       <c r="M46">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="P46">
-        <v>8.578038710501632</v>
+        <v>38.60117419725734</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2616,49 +2616,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.1735002482275185</v>
+        <v>0.7807511170238336</v>
       </c>
       <c r="C47">
-        <v>5.033455386920482</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="D47">
-        <v>0.0009825699610174071</v>
+        <v>0.004421564824578333</v>
       </c>
       <c r="E47">
-        <v>0.3553968621569965</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="F47">
-        <v>0.1769975970954553</v>
+        <v>0.7964891869295491</v>
       </c>
       <c r="G47">
-        <v>1.33006508459505</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="H47">
-        <v>0.1046842767003735</v>
+        <v>0.4710792451516809</v>
       </c>
       <c r="I47">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="J47">
-        <v>0.3439377820464584</v>
+        <v>1.547720019209063</v>
       </c>
       <c r="K47">
-        <v>1.732197297333219</v>
+        <v>7.794887837999485</v>
       </c>
       <c r="L47">
-        <v>0.5019501787316252</v>
+        <v>2.258775804292313</v>
       </c>
       <c r="M47">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="N47">
-        <v>0.01433736955058979</v>
+        <v>0.06451816297765402</v>
       </c>
       <c r="O47">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="P47">
-        <v>16.00178467375261</v>
+        <v>72.00803103188674</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2666,49 +2666,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.2285897431026797</v>
+        <v>1.028653843962058</v>
       </c>
       <c r="C48">
-        <v>6.631669323643413</v>
+        <v>29.84251195639533</v>
       </c>
       <c r="D48">
-        <v>0.0006316521177969044</v>
+        <v>0.00284243453008607</v>
       </c>
       <c r="E48">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="F48">
-        <v>0.276558745461649</v>
+        <v>1.24451435457742</v>
       </c>
       <c r="G48">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="H48">
-        <v>0.1136572147032627</v>
+        <v>0.5114574661646821</v>
       </c>
       <c r="I48">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="J48">
-        <v>0.3760386417041278</v>
+        <v>1.692173887668575</v>
       </c>
       <c r="K48">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="L48">
-        <v>0.3042122295343184</v>
+        <v>1.368955032904433</v>
       </c>
       <c r="M48">
-        <v>1.852896507461764</v>
+        <v>8.338034283577935</v>
       </c>
       <c r="N48">
-        <v>0.005734947820235915</v>
+        <v>0.02580726519106161</v>
       </c>
       <c r="O48">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="P48">
-        <v>17.28449375821607</v>
+        <v>77.78022191197232</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2716,49 +2716,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.2311225934417675</v>
+        <v>1.040051670487953</v>
       </c>
       <c r="C49">
-        <v>6.705150424182393</v>
+        <v>30.17317690882076</v>
       </c>
       <c r="D49">
-        <v>0.000701835686441005</v>
+        <v>0.003158260588984523</v>
       </c>
       <c r="E49">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="F49">
-        <v>0.2212469963693192</v>
+        <v>0.9956114836619364</v>
       </c>
       <c r="G49">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="H49">
-        <v>0.07776546269170606</v>
+        <v>0.3499445821126772</v>
       </c>
       <c r="I49">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="J49">
-        <v>0.2843218998250724</v>
+        <v>1.279448549212825</v>
       </c>
       <c r="K49">
-        <v>1.431949765795461</v>
+        <v>6.443773946079574</v>
       </c>
       <c r="L49">
-        <v>0.4563183443014774</v>
+        <v>2.053432549356649</v>
       </c>
       <c r="M49">
-        <v>2.779344761192645</v>
+        <v>12.5070514253669</v>
       </c>
       <c r="N49">
-        <v>0.01720484346070775</v>
+        <v>0.07742179557318483</v>
       </c>
       <c r="O49">
-        <v>0.2719071852784563</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="P49">
-        <v>16.58520459846625</v>
+        <v>74.63342069309813</v>
       </c>
     </row>
   </sheetData>
